--- a/tests/TestCasesPlan.xlsx
+++ b/tests/TestCasesPlan.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MYDOC\ILTWORKS\iltTests\tests\ExpoloaderNewTest\GitHub\ExpoloaderManagement\tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -51,23 +59,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Test Different combination of Username </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Eg</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>: Empty username,Empty password, Valid Username, Invalid Username,Invalid Password,valid password</t>
     </r>
@@ -235,15 +246,6 @@
     <t>Logout of the website</t>
   </si>
   <si>
-    <t>Expoloader Website</t>
-  </si>
-  <si>
-    <t>Test Expoloader Website features</t>
-  </si>
-  <si>
-    <t>Zabith/Ayesh</t>
-  </si>
-  <si>
     <t>Email Verification</t>
   </si>
   <si>
@@ -368,62 +370,104 @@
   </si>
   <si>
     <t>test consegment management's DeleteAll function</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Developed</t>
+  </si>
+  <si>
+    <t>ExpoFloorAndPalletLoading</t>
+  </si>
+  <si>
+    <t>Test expoloader floor and pallet loading in the optimization</t>
+  </si>
+  <si>
+    <t>thisun</t>
+  </si>
+  <si>
+    <t>PersonalInfo</t>
+  </si>
+  <si>
+    <t>test personal Info</t>
+  </si>
+  <si>
+    <t>ChangePassword</t>
+  </si>
+  <si>
+    <t>test change password function</t>
+  </si>
+  <si>
+    <t>DeleteAccount</t>
+  </si>
+  <si>
+    <t>test delete account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -431,7 +475,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -441,122 +485,145 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF6AA84F"/>
           <bgColor rgb="FF6AA84F"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF9900"/>
           <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFCC0000"/>
           <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -746,27 +813,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA1017"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="45.25"/>
-    <col customWidth="1" min="2" max="2" width="51.5"/>
-    <col customWidth="1" min="3" max="3" width="8.13"/>
-    <col customWidth="1" min="4" max="4" width="28.63"/>
-    <col customWidth="1" min="5" max="5" width="16.0"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -794,11 +866,17 @@
         <v>7</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3">
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -810,9 +888,11 @@
         <v>10</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4">
+      <c r="F3" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -824,9 +904,11 @@
         <v>10</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5">
+      <c r="F4" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
@@ -838,9 +920,11 @@
         <v>15</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6">
+      <c r="F5" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>16</v>
       </c>
@@ -852,9 +936,11 @@
         <v>15</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7">
+      <c r="F6" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
@@ -866,9 +952,11 @@
         <v>15</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8">
+      <c r="F7" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>20</v>
       </c>
@@ -880,9 +968,11 @@
         <v>22</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9">
+      <c r="F8" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>23</v>
       </c>
@@ -894,9 +984,11 @@
         <v>22</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10">
+      <c r="F9" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>25</v>
       </c>
@@ -908,9 +1000,11 @@
         <v>22</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11">
+      <c r="F10" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>27</v>
       </c>
@@ -920,9 +1014,11 @@
       <c r="C11" s="10"/>
       <c r="D11" s="13"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12">
+      <c r="F11" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>29</v>
       </c>
@@ -934,9 +1030,11 @@
         <v>31</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13">
+      <c r="F12" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
@@ -948,9 +1046,11 @@
         <v>34</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14">
+      <c r="F13" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>35</v>
       </c>
@@ -962,9 +1062,11 @@
         <v>34</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15">
+      <c r="F14" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>37</v>
       </c>
@@ -976,9 +1078,11 @@
         <v>39</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16">
+      <c r="F15" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>40</v>
       </c>
@@ -990,9 +1094,11 @@
         <v>39</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17">
+      <c r="F16" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>42</v>
       </c>
@@ -1004,9 +1110,11 @@
         <v>39</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18">
+      <c r="F17" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
@@ -1018,9 +1126,11 @@
         <v>22</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19">
+      <c r="F18" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -1032,9 +1142,11 @@
         <v>22</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20">
+      <c r="F19" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>48</v>
       </c>
@@ -1046,9 +1158,11 @@
         <v>22</v>
       </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21">
+      <c r="F20" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>50</v>
       </c>
@@ -1060,9 +1174,11 @@
         <v>22</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22">
+      <c r="F21" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>52</v>
       </c>
@@ -1074,9 +1190,11 @@
         <v>22</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23">
+      <c r="F22" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>54</v>
       </c>
@@ -1088,9 +1206,11 @@
         <v>22</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24">
+      <c r="F23" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>56</v>
       </c>
@@ -1102,9 +1222,11 @@
         <v>15</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25">
+      <c r="F24" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>58</v>
       </c>
@@ -1116,7 +1238,9 @@
         <v>15</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
@@ -1139,7 +1263,7 @@
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>60</v>
       </c>
@@ -1151,7 +1275,9 @@
         <v>22</v>
       </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
@@ -1174,7 +1300,7 @@
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>62</v>
       </c>
@@ -1186,7 +1312,9 @@
         <v>63</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
@@ -1209,7 +1337,7 @@
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>64</v>
       </c>
@@ -1221,7 +1349,9 @@
         <v>63</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
@@ -1244,7 +1374,7 @@
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>65</v>
       </c>
@@ -1256,7 +1386,9 @@
         <v>63</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
@@ -1279,5136 +1411,5209 @@
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31">
+      <c r="F30" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32">
+      <c r="F31" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33">
+      <c r="F32" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34">
+      <c r="F33" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35">
+      <c r="F34" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36">
+      <c r="F35" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37">
+      <c r="F36" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="15" t="s">
         <v>63</v>
       </c>
       <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38">
+      <c r="F37" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39">
+      <c r="F38" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40">
+      <c r="F39" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41">
+      <c r="F40" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="21" t="s">
-        <v>95</v>
-      </c>
       <c r="B42" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43">
+      <c r="F42" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="21" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44">
+      <c r="F43" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="21" t="s">
-        <v>102</v>
-      </c>
       <c r="B45" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="21" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46">
+      <c r="F45" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="21" t="s">
         <v>63</v>
       </c>
       <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47">
+      <c r="F46" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="21" t="s">
         <v>63</v>
       </c>
       <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48">
+      <c r="F47" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49">
+      <c r="F48" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50">
+      <c r="F49" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
       <c r="C50" s="6"/>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
       <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51">
+      <c r="F50" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
       <c r="C51" s="6"/>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
       <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52">
+      <c r="F51" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
       <c r="C52" s="6"/>
+      <c r="D52" t="s">
+        <v>89</v>
+      </c>
       <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53">
+      <c r="F52" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65">
+    <row r="65" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="66">
+    <row r="66" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67">
+    <row r="67" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68">
+    <row r="68" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69">
+    <row r="69" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70">
+    <row r="70" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71">
+    <row r="71" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72">
+    <row r="72" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73">
+    <row r="73" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74">
+    <row r="74" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75">
+    <row r="75" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76">
+    <row r="76" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77">
+    <row r="77" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78">
+    <row r="78" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79">
+    <row r="79" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80">
+    <row r="80" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
     </row>
-    <row r="81">
+    <row r="81" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82">
+    <row r="82" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83">
+    <row r="83" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
     </row>
-    <row r="84">
+    <row r="84" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85">
+    <row r="85" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
     </row>
-    <row r="86">
+    <row r="86" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
     </row>
-    <row r="87">
+    <row r="87" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
     </row>
-    <row r="88">
+    <row r="88" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
     </row>
-    <row r="89">
+    <row r="89" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
     </row>
-    <row r="90">
+    <row r="90" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
     </row>
-    <row r="91">
+    <row r="91" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92">
+    <row r="92" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93">
+    <row r="93" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94">
+    <row r="94" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
     </row>
-    <row r="95">
+    <row r="95" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
     </row>
-    <row r="96">
+    <row r="96" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
     </row>
-    <row r="97">
+    <row r="97" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
     </row>
-    <row r="98">
+    <row r="98" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99">
+    <row r="99" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
     </row>
-    <row r="100">
+    <row r="100" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
     </row>
-    <row r="101">
+    <row r="101" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
     </row>
-    <row r="102">
+    <row r="102" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
     </row>
-    <row r="103">
+    <row r="103" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
     </row>
-    <row r="104">
+    <row r="104" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
     </row>
-    <row r="105">
+    <row r="105" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
     </row>
-    <row r="106">
+    <row r="106" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
     </row>
-    <row r="107">
+    <row r="107" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
     </row>
-    <row r="108">
+    <row r="108" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
     </row>
-    <row r="109">
+    <row r="109" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
     </row>
-    <row r="110">
+    <row r="110" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
     </row>
-    <row r="111">
+    <row r="111" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="112">
+    <row r="112" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
     </row>
-    <row r="113">
+    <row r="113" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
     </row>
-    <row r="114">
+    <row r="114" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
     </row>
-    <row r="115">
+    <row r="115" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
     </row>
-    <row r="116">
+    <row r="116" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
     </row>
-    <row r="117">
+    <row r="117" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
     </row>
-    <row r="118">
+    <row r="118" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
     </row>
-    <row r="119">
+    <row r="119" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
     </row>
-    <row r="120">
+    <row r="120" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
     </row>
-    <row r="121">
+    <row r="121" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
     </row>
-    <row r="122">
+    <row r="122" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
     </row>
-    <row r="123">
+    <row r="123" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
     </row>
-    <row r="124">
+    <row r="124" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
     </row>
-    <row r="125">
+    <row r="125" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
     </row>
-    <row r="126">
+    <row r="126" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
     </row>
-    <row r="127">
+    <row r="127" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
     </row>
-    <row r="128">
+    <row r="128" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
     </row>
-    <row r="129">
+    <row r="129" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
     </row>
-    <row r="130">
+    <row r="130" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
     </row>
-    <row r="131">
+    <row r="131" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
     </row>
-    <row r="132">
+    <row r="132" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
     </row>
-    <row r="133">
+    <row r="133" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
     </row>
-    <row r="134">
+    <row r="134" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
     </row>
-    <row r="135">
+    <row r="135" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
     </row>
-    <row r="136">
+    <row r="136" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
     </row>
-    <row r="137">
+    <row r="137" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
     </row>
-    <row r="138">
+    <row r="138" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
     </row>
-    <row r="139">
+    <row r="139" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
     </row>
-    <row r="140">
+    <row r="140" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
     </row>
-    <row r="141">
+    <row r="141" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
     </row>
-    <row r="142">
+    <row r="142" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
     </row>
-    <row r="143">
+    <row r="143" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
     </row>
-    <row r="144">
+    <row r="144" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
     </row>
-    <row r="145">
+    <row r="145" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
     </row>
-    <row r="146">
+    <row r="146" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
     </row>
-    <row r="147">
+    <row r="147" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
     </row>
-    <row r="148">
+    <row r="148" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="149">
+    <row r="149" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
     </row>
-    <row r="150">
+    <row r="150" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
     </row>
-    <row r="151">
+    <row r="151" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
     </row>
-    <row r="152">
+    <row r="152" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
     </row>
-    <row r="153">
+    <row r="153" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
     </row>
-    <row r="154">
+    <row r="154" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
     </row>
-    <row r="155">
+    <row r="155" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
     </row>
-    <row r="156">
+    <row r="156" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
     </row>
-    <row r="157">
+    <row r="157" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
     </row>
-    <row r="158">
+    <row r="158" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
     </row>
-    <row r="159">
+    <row r="159" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
     </row>
-    <row r="160">
+    <row r="160" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
     </row>
-    <row r="161">
+    <row r="161" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
     </row>
-    <row r="162">
+    <row r="162" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
     </row>
-    <row r="163">
+    <row r="163" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
     </row>
-    <row r="164">
+    <row r="164" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
     </row>
-    <row r="165">
+    <row r="165" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
     </row>
-    <row r="166">
+    <row r="166" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
     </row>
-    <row r="167">
+    <row r="167" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
     </row>
-    <row r="168">
+    <row r="168" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
     </row>
-    <row r="169">
+    <row r="169" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
     </row>
-    <row r="170">
+    <row r="170" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
     </row>
-    <row r="171">
+    <row r="171" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
     </row>
-    <row r="172">
+    <row r="172" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
     </row>
-    <row r="173">
+    <row r="173" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
     </row>
-    <row r="174">
+    <row r="174" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
     </row>
-    <row r="175">
+    <row r="175" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
     </row>
-    <row r="176">
+    <row r="176" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
     </row>
-    <row r="177">
+    <row r="177" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
     </row>
-    <row r="178">
+    <row r="178" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
     </row>
-    <row r="179">
+    <row r="179" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
     </row>
-    <row r="180">
+    <row r="180" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
     </row>
-    <row r="181">
+    <row r="181" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
     </row>
-    <row r="182">
+    <row r="182" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
     </row>
-    <row r="183">
+    <row r="183" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
     </row>
-    <row r="184">
+    <row r="184" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C184" s="6"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
     </row>
-    <row r="185">
+    <row r="185" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
     </row>
-    <row r="186">
+    <row r="186" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
     </row>
-    <row r="187">
+    <row r="187" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
     </row>
-    <row r="188">
+    <row r="188" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
     </row>
-    <row r="189">
+    <row r="189" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
     </row>
-    <row r="190">
+    <row r="190" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
     </row>
-    <row r="191">
+    <row r="191" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
     </row>
-    <row r="192">
+    <row r="192" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
     </row>
-    <row r="193">
+    <row r="193" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
     </row>
-    <row r="194">
+    <row r="194" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
     </row>
-    <row r="195">
+    <row r="195" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
     </row>
-    <row r="196">
+    <row r="196" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
     </row>
-    <row r="197">
+    <row r="197" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
     </row>
-    <row r="198">
+    <row r="198" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
     </row>
-    <row r="199">
+    <row r="199" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
     </row>
-    <row r="200">
+    <row r="200" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
     </row>
-    <row r="201">
+    <row r="201" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C201" s="6"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
     </row>
-    <row r="202">
+    <row r="202" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C202" s="6"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
     </row>
-    <row r="203">
+    <row r="203" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C203" s="6"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
     </row>
-    <row r="204">
+    <row r="204" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C204" s="6"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
     </row>
-    <row r="205">
+    <row r="205" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C205" s="6"/>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
     </row>
-    <row r="206">
+    <row r="206" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
     </row>
-    <row r="207">
+    <row r="207" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C207" s="6"/>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
     </row>
-    <row r="208">
+    <row r="208" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C208" s="6"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
     </row>
-    <row r="209">
+    <row r="209" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
     </row>
-    <row r="210">
+    <row r="210" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C210" s="6"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
     </row>
-    <row r="211">
+    <row r="211" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C211" s="6"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
     </row>
-    <row r="212">
+    <row r="212" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C212" s="6"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
     </row>
-    <row r="213">
+    <row r="213" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C213" s="6"/>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
     </row>
-    <row r="214">
+    <row r="214" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C214" s="6"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
     </row>
-    <row r="215">
+    <row r="215" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C215" s="6"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
     </row>
-    <row r="216">
+    <row r="216" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C216" s="6"/>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
     </row>
-    <row r="217">
+    <row r="217" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
     </row>
-    <row r="218">
+    <row r="218" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
     </row>
-    <row r="219">
+    <row r="219" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C219" s="6"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
     </row>
-    <row r="220">
+    <row r="220" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
     </row>
-    <row r="221">
+    <row r="221" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C221" s="6"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
     </row>
-    <row r="222">
+    <row r="222" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C222" s="6"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
     </row>
-    <row r="223">
+    <row r="223" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
     </row>
-    <row r="224">
+    <row r="224" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C224" s="6"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
     </row>
-    <row r="225">
+    <row r="225" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C225" s="6"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
     </row>
-    <row r="226">
+    <row r="226" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C226" s="6"/>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
     </row>
-    <row r="227">
+    <row r="227" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C227" s="6"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
     </row>
-    <row r="228">
+    <row r="228" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C228" s="6"/>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
     </row>
-    <row r="229">
+    <row r="229" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C229" s="6"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
     </row>
-    <row r="230">
+    <row r="230" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C230" s="6"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
     </row>
-    <row r="231">
+    <row r="231" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
     </row>
-    <row r="232">
+    <row r="232" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C232" s="6"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
     </row>
-    <row r="233">
+    <row r="233" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
     </row>
-    <row r="234">
+    <row r="234" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C234" s="6"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
     </row>
-    <row r="235">
+    <row r="235" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
     </row>
-    <row r="236">
+    <row r="236" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C236" s="6"/>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
     </row>
-    <row r="237">
+    <row r="237" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C237" s="6"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
     </row>
-    <row r="238">
+    <row r="238" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C238" s="6"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
     </row>
-    <row r="239">
+    <row r="239" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C239" s="6"/>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
     </row>
-    <row r="240">
+    <row r="240" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C240" s="6"/>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
     </row>
-    <row r="241">
+    <row r="241" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C241" s="6"/>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
     </row>
-    <row r="242">
+    <row r="242" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C242" s="6"/>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
     </row>
-    <row r="243">
+    <row r="243" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C243" s="6"/>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
     </row>
-    <row r="244">
+    <row r="244" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C244" s="6"/>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
     </row>
-    <row r="245">
+    <row r="245" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C245" s="6"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
     </row>
-    <row r="246">
+    <row r="246" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
     </row>
-    <row r="247">
+    <row r="247" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C247" s="6"/>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
     </row>
-    <row r="248">
+    <row r="248" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C248" s="6"/>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
     </row>
-    <row r="249">
+    <row r="249" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C249" s="6"/>
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
     </row>
-    <row r="250">
+    <row r="250" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C250" s="6"/>
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
     </row>
-    <row r="251">
+    <row r="251" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C251" s="6"/>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
     </row>
-    <row r="252">
+    <row r="252" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C252" s="6"/>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
     </row>
-    <row r="253">
+    <row r="253" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C253" s="6"/>
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
     </row>
-    <row r="254">
+    <row r="254" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C254" s="6"/>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
     </row>
-    <row r="255">
+    <row r="255" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C255" s="6"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
     </row>
-    <row r="256">
+    <row r="256" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C256" s="6"/>
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
     </row>
-    <row r="257">
+    <row r="257" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C257" s="6"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
     </row>
-    <row r="258">
+    <row r="258" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C258" s="6"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
     </row>
-    <row r="259">
+    <row r="259" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
     </row>
-    <row r="260">
+    <row r="260" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C260" s="6"/>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
     </row>
-    <row r="261">
+    <row r="261" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C261" s="6"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
     </row>
-    <row r="262">
+    <row r="262" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C262" s="6"/>
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
     </row>
-    <row r="263">
+    <row r="263" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C263" s="6"/>
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
     </row>
-    <row r="264">
+    <row r="264" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C264" s="6"/>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
     </row>
-    <row r="265">
+    <row r="265" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C265" s="6"/>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
     </row>
-    <row r="266">
+    <row r="266" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C266" s="6"/>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
     </row>
-    <row r="267">
+    <row r="267" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C267" s="6"/>
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
     </row>
-    <row r="268">
+    <row r="268" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C268" s="6"/>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
     </row>
-    <row r="269">
+    <row r="269" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C269" s="6"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
     </row>
-    <row r="270">
+    <row r="270" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C270" s="6"/>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
     </row>
-    <row r="271">
+    <row r="271" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C271" s="6"/>
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
     </row>
-    <row r="272">
+    <row r="272" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C272" s="6"/>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
     </row>
-    <row r="273">
+    <row r="273" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C273" s="6"/>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
     </row>
-    <row r="274">
+    <row r="274" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C274" s="6"/>
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
     </row>
-    <row r="275">
+    <row r="275" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C275" s="6"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
     </row>
-    <row r="276">
+    <row r="276" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C276" s="6"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
     </row>
-    <row r="277">
+    <row r="277" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C277" s="6"/>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
     </row>
-    <row r="278">
+    <row r="278" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C278" s="6"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
     </row>
-    <row r="279">
+    <row r="279" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C279" s="6"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
     </row>
-    <row r="280">
+    <row r="280" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C280" s="6"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
     </row>
-    <row r="281">
+    <row r="281" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
     </row>
-    <row r="282">
+    <row r="282" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
     </row>
-    <row r="283">
+    <row r="283" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
     </row>
-    <row r="284">
+    <row r="284" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C284" s="6"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
     </row>
-    <row r="285">
+    <row r="285" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
     </row>
-    <row r="286">
+    <row r="286" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C286" s="6"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
     </row>
-    <row r="287">
+    <row r="287" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C287" s="6"/>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
     </row>
-    <row r="288">
+    <row r="288" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
     </row>
-    <row r="289">
+    <row r="289" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
     </row>
-    <row r="290">
+    <row r="290" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C290" s="6"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
     </row>
-    <row r="291">
+    <row r="291" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C291" s="6"/>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
     </row>
-    <row r="292">
+    <row r="292" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C292" s="6"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
     </row>
-    <row r="293">
+    <row r="293" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
     </row>
-    <row r="294">
+    <row r="294" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C294" s="6"/>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
     </row>
-    <row r="295">
+    <row r="295" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C295" s="6"/>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
     </row>
-    <row r="296">
+    <row r="296" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C296" s="6"/>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
     </row>
-    <row r="297">
+    <row r="297" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
     </row>
-    <row r="298">
+    <row r="298" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C298" s="6"/>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
     </row>
-    <row r="299">
+    <row r="299" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C299" s="6"/>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
     </row>
-    <row r="300">
+    <row r="300" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
     </row>
-    <row r="301">
+    <row r="301" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C301" s="6"/>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
     </row>
-    <row r="302">
+    <row r="302" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
     </row>
-    <row r="303">
+    <row r="303" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C303" s="6"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
     </row>
-    <row r="304">
+    <row r="304" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C304" s="6"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
     </row>
-    <row r="305">
+    <row r="305" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C305" s="6"/>
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
     </row>
-    <row r="306">
+    <row r="306" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C306" s="6"/>
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
     </row>
-    <row r="307">
+    <row r="307" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C307" s="6"/>
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
     </row>
-    <row r="308">
+    <row r="308" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C308" s="6"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
     </row>
-    <row r="309">
+    <row r="309" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C309" s="6"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
     </row>
-    <row r="310">
+    <row r="310" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C310" s="6"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
     </row>
-    <row r="311">
+    <row r="311" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C311" s="6"/>
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
     </row>
-    <row r="312">
+    <row r="312" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
     </row>
-    <row r="313">
+    <row r="313" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
     </row>
-    <row r="314">
+    <row r="314" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C314" s="6"/>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
     </row>
-    <row r="315">
+    <row r="315" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C315" s="6"/>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
     </row>
-    <row r="316">
+    <row r="316" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
     </row>
-    <row r="317">
+    <row r="317" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C317" s="6"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
     </row>
-    <row r="318">
+    <row r="318" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
     </row>
-    <row r="319">
+    <row r="319" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C319" s="6"/>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
     </row>
-    <row r="320">
+    <row r="320" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C320" s="6"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
     </row>
-    <row r="321">
+    <row r="321" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C321" s="6"/>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
     </row>
-    <row r="322">
+    <row r="322" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C322" s="6"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
     </row>
-    <row r="323">
+    <row r="323" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C323" s="6"/>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
     </row>
-    <row r="324">
+    <row r="324" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C324" s="6"/>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
     </row>
-    <row r="325">
+    <row r="325" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C325" s="6"/>
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
     </row>
-    <row r="326">
+    <row r="326" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C326" s="6"/>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
     </row>
-    <row r="327">
+    <row r="327" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C327" s="6"/>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
     </row>
-    <row r="328">
+    <row r="328" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
     </row>
-    <row r="329">
+    <row r="329" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
     </row>
-    <row r="330">
+    <row r="330" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
     </row>
-    <row r="331">
+    <row r="331" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C331" s="6"/>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
     </row>
-    <row r="332">
+    <row r="332" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
     </row>
-    <row r="333">
+    <row r="333" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C333" s="6"/>
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
     </row>
-    <row r="334">
+    <row r="334" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C334" s="6"/>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
     </row>
-    <row r="335">
+    <row r="335" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C335" s="6"/>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
     </row>
-    <row r="336">
+    <row r="336" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
     </row>
-    <row r="337">
+    <row r="337" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C337" s="6"/>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
     </row>
-    <row r="338">
+    <row r="338" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C338" s="6"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
     </row>
-    <row r="339">
+    <row r="339" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C339" s="6"/>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
     </row>
-    <row r="340">
+    <row r="340" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C340" s="6"/>
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
     </row>
-    <row r="341">
+    <row r="341" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C341" s="6"/>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
     </row>
-    <row r="342">
+    <row r="342" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
     </row>
-    <row r="343">
+    <row r="343" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C343" s="6"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
     </row>
-    <row r="344">
+    <row r="344" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
     </row>
-    <row r="345">
+    <row r="345" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C345" s="6"/>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
     </row>
-    <row r="346">
+    <row r="346" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C346" s="6"/>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
     </row>
-    <row r="347">
+    <row r="347" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C347" s="6"/>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
     </row>
-    <row r="348">
+    <row r="348" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
     </row>
-    <row r="349">
+    <row r="349" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C349" s="6"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
     </row>
-    <row r="350">
+    <row r="350" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C350" s="6"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
     </row>
-    <row r="351">
+    <row r="351" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C351" s="6"/>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
     </row>
-    <row r="352">
+    <row r="352" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
     </row>
-    <row r="353">
+    <row r="353" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C353" s="6"/>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
     </row>
-    <row r="354">
+    <row r="354" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C354" s="6"/>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
     </row>
-    <row r="355">
+    <row r="355" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
     </row>
-    <row r="356">
+    <row r="356" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C356" s="6"/>
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
     </row>
-    <row r="357">
+    <row r="357" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C357" s="6"/>
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
     </row>
-    <row r="358">
+    <row r="358" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C358" s="6"/>
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
     </row>
-    <row r="359">
+    <row r="359" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C359" s="6"/>
       <c r="E359" s="6"/>
       <c r="F359" s="6"/>
     </row>
-    <row r="360">
+    <row r="360" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C360" s="6"/>
       <c r="E360" s="6"/>
       <c r="F360" s="6"/>
     </row>
-    <row r="361">
+    <row r="361" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C361" s="6"/>
       <c r="E361" s="6"/>
       <c r="F361" s="6"/>
     </row>
-    <row r="362">
+    <row r="362" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C362" s="6"/>
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
     </row>
-    <row r="363">
+    <row r="363" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C363" s="6"/>
       <c r="E363" s="6"/>
       <c r="F363" s="6"/>
     </row>
-    <row r="364">
+    <row r="364" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C364" s="6"/>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
     </row>
-    <row r="365">
+    <row r="365" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C365" s="6"/>
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
     </row>
-    <row r="366">
+    <row r="366" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C366" s="6"/>
       <c r="E366" s="6"/>
       <c r="F366" s="6"/>
     </row>
-    <row r="367">
+    <row r="367" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C367" s="6"/>
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
     </row>
-    <row r="368">
+    <row r="368" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C368" s="6"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
     </row>
-    <row r="369">
+    <row r="369" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C369" s="6"/>
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
     </row>
-    <row r="370">
+    <row r="370" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C370" s="6"/>
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
     </row>
-    <row r="371">
+    <row r="371" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C371" s="6"/>
       <c r="E371" s="6"/>
       <c r="F371" s="6"/>
     </row>
-    <row r="372">
+    <row r="372" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C372" s="6"/>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
     </row>
-    <row r="373">
+    <row r="373" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C373" s="6"/>
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
     </row>
-    <row r="374">
+    <row r="374" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C374" s="6"/>
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
     </row>
-    <row r="375">
+    <row r="375" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C375" s="6"/>
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
     </row>
-    <row r="376">
+    <row r="376" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C376" s="6"/>
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
     </row>
-    <row r="377">
+    <row r="377" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C377" s="6"/>
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
     </row>
-    <row r="378">
+    <row r="378" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C378" s="6"/>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
     </row>
-    <row r="379">
+    <row r="379" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C379" s="6"/>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
     </row>
-    <row r="380">
+    <row r="380" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C380" s="6"/>
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
     </row>
-    <row r="381">
+    <row r="381" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C381" s="6"/>
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
     </row>
-    <row r="382">
+    <row r="382" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C382" s="6"/>
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
     </row>
-    <row r="383">
+    <row r="383" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C383" s="6"/>
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
     </row>
-    <row r="384">
+    <row r="384" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C384" s="6"/>
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
     </row>
-    <row r="385">
+    <row r="385" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C385" s="6"/>
       <c r="E385" s="6"/>
       <c r="F385" s="6"/>
     </row>
-    <row r="386">
+    <row r="386" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C386" s="6"/>
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
     </row>
-    <row r="387">
+    <row r="387" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C387" s="6"/>
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
     </row>
-    <row r="388">
+    <row r="388" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C388" s="6"/>
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
     </row>
-    <row r="389">
+    <row r="389" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C389" s="6"/>
       <c r="E389" s="6"/>
       <c r="F389" s="6"/>
     </row>
-    <row r="390">
+    <row r="390" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C390" s="6"/>
       <c r="E390" s="6"/>
       <c r="F390" s="6"/>
     </row>
-    <row r="391">
+    <row r="391" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C391" s="6"/>
       <c r="E391" s="6"/>
       <c r="F391" s="6"/>
     </row>
-    <row r="392">
+    <row r="392" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C392" s="6"/>
       <c r="E392" s="6"/>
       <c r="F392" s="6"/>
     </row>
-    <row r="393">
+    <row r="393" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C393" s="6"/>
       <c r="E393" s="6"/>
       <c r="F393" s="6"/>
     </row>
-    <row r="394">
+    <row r="394" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C394" s="6"/>
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
     </row>
-    <row r="395">
+    <row r="395" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C395" s="6"/>
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
     </row>
-    <row r="396">
+    <row r="396" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C396" s="6"/>
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
     </row>
-    <row r="397">
+    <row r="397" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C397" s="6"/>
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
     </row>
-    <row r="398">
+    <row r="398" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C398" s="6"/>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
     </row>
-    <row r="399">
+    <row r="399" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C399" s="6"/>
       <c r="E399" s="6"/>
       <c r="F399" s="6"/>
     </row>
-    <row r="400">
+    <row r="400" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C400" s="6"/>
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
     </row>
-    <row r="401">
+    <row r="401" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C401" s="6"/>
       <c r="E401" s="6"/>
       <c r="F401" s="6"/>
     </row>
-    <row r="402">
+    <row r="402" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C402" s="6"/>
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
     </row>
-    <row r="403">
+    <row r="403" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C403" s="6"/>
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
     </row>
-    <row r="404">
+    <row r="404" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C404" s="6"/>
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
     </row>
-    <row r="405">
+    <row r="405" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C405" s="6"/>
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
     </row>
-    <row r="406">
+    <row r="406" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C406" s="6"/>
       <c r="E406" s="6"/>
       <c r="F406" s="6"/>
     </row>
-    <row r="407">
+    <row r="407" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C407" s="6"/>
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
     </row>
-    <row r="408">
+    <row r="408" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C408" s="6"/>
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
     </row>
-    <row r="409">
+    <row r="409" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C409" s="6"/>
       <c r="E409" s="6"/>
       <c r="F409" s="6"/>
     </row>
-    <row r="410">
+    <row r="410" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C410" s="6"/>
       <c r="E410" s="6"/>
       <c r="F410" s="6"/>
     </row>
-    <row r="411">
+    <row r="411" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C411" s="6"/>
       <c r="E411" s="6"/>
       <c r="F411" s="6"/>
     </row>
-    <row r="412">
+    <row r="412" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C412" s="6"/>
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
     </row>
-    <row r="413">
+    <row r="413" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C413" s="6"/>
       <c r="E413" s="6"/>
       <c r="F413" s="6"/>
     </row>
-    <row r="414">
+    <row r="414" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C414" s="6"/>
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
     </row>
-    <row r="415">
+    <row r="415" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C415" s="6"/>
       <c r="E415" s="6"/>
       <c r="F415" s="6"/>
     </row>
-    <row r="416">
+    <row r="416" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C416" s="6"/>
       <c r="E416" s="6"/>
       <c r="F416" s="6"/>
     </row>
-    <row r="417">
+    <row r="417" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C417" s="6"/>
       <c r="E417" s="6"/>
       <c r="F417" s="6"/>
     </row>
-    <row r="418">
+    <row r="418" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C418" s="6"/>
       <c r="E418" s="6"/>
       <c r="F418" s="6"/>
     </row>
-    <row r="419">
+    <row r="419" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C419" s="6"/>
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
     </row>
-    <row r="420">
+    <row r="420" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C420" s="6"/>
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
     </row>
-    <row r="421">
+    <row r="421" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C421" s="6"/>
       <c r="E421" s="6"/>
       <c r="F421" s="6"/>
     </row>
-    <row r="422">
+    <row r="422" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C422" s="6"/>
       <c r="E422" s="6"/>
       <c r="F422" s="6"/>
     </row>
-    <row r="423">
+    <row r="423" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C423" s="6"/>
       <c r="E423" s="6"/>
       <c r="F423" s="6"/>
     </row>
-    <row r="424">
+    <row r="424" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C424" s="6"/>
       <c r="E424" s="6"/>
       <c r="F424" s="6"/>
     </row>
-    <row r="425">
+    <row r="425" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C425" s="6"/>
       <c r="E425" s="6"/>
       <c r="F425" s="6"/>
     </row>
-    <row r="426">
+    <row r="426" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C426" s="6"/>
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
     </row>
-    <row r="427">
+    <row r="427" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C427" s="6"/>
       <c r="E427" s="6"/>
       <c r="F427" s="6"/>
     </row>
-    <row r="428">
+    <row r="428" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C428" s="6"/>
       <c r="E428" s="6"/>
       <c r="F428" s="6"/>
     </row>
-    <row r="429">
+    <row r="429" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C429" s="6"/>
       <c r="E429" s="6"/>
       <c r="F429" s="6"/>
     </row>
-    <row r="430">
+    <row r="430" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C430" s="6"/>
       <c r="E430" s="6"/>
       <c r="F430" s="6"/>
     </row>
-    <row r="431">
+    <row r="431" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C431" s="6"/>
       <c r="E431" s="6"/>
       <c r="F431" s="6"/>
     </row>
-    <row r="432">
+    <row r="432" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C432" s="6"/>
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
     </row>
-    <row r="433">
+    <row r="433" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C433" s="6"/>
       <c r="E433" s="6"/>
       <c r="F433" s="6"/>
     </row>
-    <row r="434">
+    <row r="434" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C434" s="6"/>
       <c r="E434" s="6"/>
       <c r="F434" s="6"/>
     </row>
-    <row r="435">
+    <row r="435" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C435" s="6"/>
       <c r="E435" s="6"/>
       <c r="F435" s="6"/>
     </row>
-    <row r="436">
+    <row r="436" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C436" s="6"/>
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
     </row>
-    <row r="437">
+    <row r="437" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C437" s="6"/>
       <c r="E437" s="6"/>
       <c r="F437" s="6"/>
     </row>
-    <row r="438">
+    <row r="438" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C438" s="6"/>
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
     </row>
-    <row r="439">
+    <row r="439" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C439" s="6"/>
       <c r="E439" s="6"/>
       <c r="F439" s="6"/>
     </row>
-    <row r="440">
+    <row r="440" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C440" s="6"/>
       <c r="E440" s="6"/>
       <c r="F440" s="6"/>
     </row>
-    <row r="441">
+    <row r="441" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C441" s="6"/>
       <c r="E441" s="6"/>
       <c r="F441" s="6"/>
     </row>
-    <row r="442">
+    <row r="442" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C442" s="6"/>
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
     </row>
-    <row r="443">
+    <row r="443" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C443" s="6"/>
       <c r="E443" s="6"/>
       <c r="F443" s="6"/>
     </row>
-    <row r="444">
+    <row r="444" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C444" s="6"/>
       <c r="E444" s="6"/>
       <c r="F444" s="6"/>
     </row>
-    <row r="445">
+    <row r="445" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C445" s="6"/>
       <c r="E445" s="6"/>
       <c r="F445" s="6"/>
     </row>
-    <row r="446">
+    <row r="446" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C446" s="6"/>
       <c r="E446" s="6"/>
       <c r="F446" s="6"/>
     </row>
-    <row r="447">
+    <row r="447" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C447" s="6"/>
       <c r="E447" s="6"/>
       <c r="F447" s="6"/>
     </row>
-    <row r="448">
+    <row r="448" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C448" s="6"/>
       <c r="E448" s="6"/>
       <c r="F448" s="6"/>
     </row>
-    <row r="449">
+    <row r="449" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C449" s="6"/>
       <c r="E449" s="6"/>
       <c r="F449" s="6"/>
     </row>
-    <row r="450">
+    <row r="450" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C450" s="6"/>
       <c r="E450" s="6"/>
       <c r="F450" s="6"/>
     </row>
-    <row r="451">
+    <row r="451" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C451" s="6"/>
       <c r="E451" s="6"/>
       <c r="F451" s="6"/>
     </row>
-    <row r="452">
+    <row r="452" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C452" s="6"/>
       <c r="E452" s="6"/>
       <c r="F452" s="6"/>
     </row>
-    <row r="453">
+    <row r="453" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C453" s="6"/>
       <c r="E453" s="6"/>
       <c r="F453" s="6"/>
     </row>
-    <row r="454">
+    <row r="454" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C454" s="6"/>
       <c r="E454" s="6"/>
       <c r="F454" s="6"/>
     </row>
-    <row r="455">
+    <row r="455" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C455" s="6"/>
       <c r="E455" s="6"/>
       <c r="F455" s="6"/>
     </row>
-    <row r="456">
+    <row r="456" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C456" s="6"/>
       <c r="E456" s="6"/>
       <c r="F456" s="6"/>
     </row>
-    <row r="457">
+    <row r="457" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C457" s="6"/>
       <c r="E457" s="6"/>
       <c r="F457" s="6"/>
     </row>
-    <row r="458">
+    <row r="458" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C458" s="6"/>
       <c r="E458" s="6"/>
       <c r="F458" s="6"/>
     </row>
-    <row r="459">
+    <row r="459" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C459" s="6"/>
       <c r="E459" s="6"/>
       <c r="F459" s="6"/>
     </row>
-    <row r="460">
+    <row r="460" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C460" s="6"/>
       <c r="E460" s="6"/>
       <c r="F460" s="6"/>
     </row>
-    <row r="461">
+    <row r="461" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C461" s="6"/>
       <c r="E461" s="6"/>
       <c r="F461" s="6"/>
     </row>
-    <row r="462">
+    <row r="462" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C462" s="6"/>
       <c r="E462" s="6"/>
       <c r="F462" s="6"/>
     </row>
-    <row r="463">
+    <row r="463" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C463" s="6"/>
       <c r="E463" s="6"/>
       <c r="F463" s="6"/>
     </row>
-    <row r="464">
+    <row r="464" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C464" s="6"/>
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
     </row>
-    <row r="465">
+    <row r="465" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C465" s="6"/>
       <c r="E465" s="6"/>
       <c r="F465" s="6"/>
     </row>
-    <row r="466">
+    <row r="466" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C466" s="6"/>
       <c r="E466" s="6"/>
       <c r="F466" s="6"/>
     </row>
-    <row r="467">
+    <row r="467" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C467" s="6"/>
       <c r="E467" s="6"/>
       <c r="F467" s="6"/>
     </row>
-    <row r="468">
+    <row r="468" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C468" s="6"/>
       <c r="E468" s="6"/>
       <c r="F468" s="6"/>
     </row>
-    <row r="469">
+    <row r="469" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C469" s="6"/>
       <c r="E469" s="6"/>
       <c r="F469" s="6"/>
     </row>
-    <row r="470">
+    <row r="470" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C470" s="6"/>
       <c r="E470" s="6"/>
       <c r="F470" s="6"/>
     </row>
-    <row r="471">
+    <row r="471" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C471" s="6"/>
       <c r="E471" s="6"/>
       <c r="F471" s="6"/>
     </row>
-    <row r="472">
+    <row r="472" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C472" s="6"/>
       <c r="E472" s="6"/>
       <c r="F472" s="6"/>
     </row>
-    <row r="473">
+    <row r="473" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C473" s="6"/>
       <c r="E473" s="6"/>
       <c r="F473" s="6"/>
     </row>
-    <row r="474">
+    <row r="474" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C474" s="6"/>
       <c r="E474" s="6"/>
       <c r="F474" s="6"/>
     </row>
-    <row r="475">
+    <row r="475" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C475" s="6"/>
       <c r="E475" s="6"/>
       <c r="F475" s="6"/>
     </row>
-    <row r="476">
+    <row r="476" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C476" s="6"/>
       <c r="E476" s="6"/>
       <c r="F476" s="6"/>
     </row>
-    <row r="477">
+    <row r="477" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C477" s="6"/>
       <c r="E477" s="6"/>
       <c r="F477" s="6"/>
     </row>
-    <row r="478">
+    <row r="478" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C478" s="6"/>
       <c r="E478" s="6"/>
       <c r="F478" s="6"/>
     </row>
-    <row r="479">
+    <row r="479" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C479" s="6"/>
       <c r="E479" s="6"/>
       <c r="F479" s="6"/>
     </row>
-    <row r="480">
+    <row r="480" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C480" s="6"/>
       <c r="E480" s="6"/>
       <c r="F480" s="6"/>
     </row>
-    <row r="481">
+    <row r="481" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C481" s="6"/>
       <c r="E481" s="6"/>
       <c r="F481" s="6"/>
     </row>
-    <row r="482">
+    <row r="482" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C482" s="6"/>
       <c r="E482" s="6"/>
       <c r="F482" s="6"/>
     </row>
-    <row r="483">
+    <row r="483" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C483" s="6"/>
       <c r="E483" s="6"/>
       <c r="F483" s="6"/>
     </row>
-    <row r="484">
+    <row r="484" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C484" s="6"/>
       <c r="E484" s="6"/>
       <c r="F484" s="6"/>
     </row>
-    <row r="485">
+    <row r="485" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C485" s="6"/>
       <c r="E485" s="6"/>
       <c r="F485" s="6"/>
     </row>
-    <row r="486">
+    <row r="486" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C486" s="6"/>
       <c r="E486" s="6"/>
       <c r="F486" s="6"/>
     </row>
-    <row r="487">
+    <row r="487" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C487" s="6"/>
       <c r="E487" s="6"/>
       <c r="F487" s="6"/>
     </row>
-    <row r="488">
+    <row r="488" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C488" s="6"/>
       <c r="E488" s="6"/>
       <c r="F488" s="6"/>
     </row>
-    <row r="489">
+    <row r="489" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C489" s="6"/>
       <c r="E489" s="6"/>
       <c r="F489" s="6"/>
     </row>
-    <row r="490">
+    <row r="490" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C490" s="6"/>
       <c r="E490" s="6"/>
       <c r="F490" s="6"/>
     </row>
-    <row r="491">
+    <row r="491" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C491" s="6"/>
       <c r="E491" s="6"/>
       <c r="F491" s="6"/>
     </row>
-    <row r="492">
+    <row r="492" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C492" s="6"/>
       <c r="E492" s="6"/>
       <c r="F492" s="6"/>
     </row>
-    <row r="493">
+    <row r="493" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C493" s="6"/>
       <c r="E493" s="6"/>
       <c r="F493" s="6"/>
     </row>
-    <row r="494">
+    <row r="494" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C494" s="6"/>
       <c r="E494" s="6"/>
       <c r="F494" s="6"/>
     </row>
-    <row r="495">
+    <row r="495" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C495" s="6"/>
       <c r="E495" s="6"/>
       <c r="F495" s="6"/>
     </row>
-    <row r="496">
+    <row r="496" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C496" s="6"/>
       <c r="E496" s="6"/>
       <c r="F496" s="6"/>
     </row>
-    <row r="497">
+    <row r="497" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C497" s="6"/>
       <c r="E497" s="6"/>
       <c r="F497" s="6"/>
     </row>
-    <row r="498">
+    <row r="498" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C498" s="6"/>
       <c r="E498" s="6"/>
       <c r="F498" s="6"/>
     </row>
-    <row r="499">
+    <row r="499" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C499" s="6"/>
       <c r="E499" s="6"/>
       <c r="F499" s="6"/>
     </row>
-    <row r="500">
+    <row r="500" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C500" s="6"/>
       <c r="E500" s="6"/>
       <c r="F500" s="6"/>
     </row>
-    <row r="501">
+    <row r="501" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C501" s="6"/>
       <c r="E501" s="6"/>
       <c r="F501" s="6"/>
     </row>
-    <row r="502">
+    <row r="502" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C502" s="6"/>
       <c r="E502" s="6"/>
       <c r="F502" s="6"/>
     </row>
-    <row r="503">
+    <row r="503" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C503" s="6"/>
       <c r="E503" s="6"/>
       <c r="F503" s="6"/>
     </row>
-    <row r="504">
+    <row r="504" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C504" s="6"/>
       <c r="E504" s="6"/>
       <c r="F504" s="6"/>
     </row>
-    <row r="505">
+    <row r="505" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C505" s="6"/>
       <c r="E505" s="6"/>
       <c r="F505" s="6"/>
     </row>
-    <row r="506">
+    <row r="506" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C506" s="6"/>
       <c r="E506" s="6"/>
       <c r="F506" s="6"/>
     </row>
-    <row r="507">
+    <row r="507" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C507" s="6"/>
       <c r="E507" s="6"/>
       <c r="F507" s="6"/>
     </row>
-    <row r="508">
+    <row r="508" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C508" s="6"/>
       <c r="E508" s="6"/>
       <c r="F508" s="6"/>
     </row>
-    <row r="509">
+    <row r="509" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C509" s="6"/>
       <c r="E509" s="6"/>
       <c r="F509" s="6"/>
     </row>
-    <row r="510">
+    <row r="510" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C510" s="6"/>
       <c r="E510" s="6"/>
       <c r="F510" s="6"/>
     </row>
-    <row r="511">
+    <row r="511" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C511" s="6"/>
       <c r="E511" s="6"/>
       <c r="F511" s="6"/>
     </row>
-    <row r="512">
+    <row r="512" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C512" s="6"/>
       <c r="E512" s="6"/>
       <c r="F512" s="6"/>
     </row>
-    <row r="513">
+    <row r="513" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C513" s="6"/>
       <c r="E513" s="6"/>
       <c r="F513" s="6"/>
     </row>
-    <row r="514">
+    <row r="514" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C514" s="6"/>
       <c r="E514" s="6"/>
       <c r="F514" s="6"/>
     </row>
-    <row r="515">
+    <row r="515" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C515" s="6"/>
       <c r="E515" s="6"/>
       <c r="F515" s="6"/>
     </row>
-    <row r="516">
+    <row r="516" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C516" s="6"/>
       <c r="E516" s="6"/>
       <c r="F516" s="6"/>
     </row>
-    <row r="517">
+    <row r="517" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C517" s="6"/>
       <c r="E517" s="6"/>
       <c r="F517" s="6"/>
     </row>
-    <row r="518">
+    <row r="518" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C518" s="6"/>
       <c r="E518" s="6"/>
       <c r="F518" s="6"/>
     </row>
-    <row r="519">
+    <row r="519" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C519" s="6"/>
       <c r="E519" s="6"/>
       <c r="F519" s="6"/>
     </row>
-    <row r="520">
+    <row r="520" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C520" s="6"/>
       <c r="E520" s="6"/>
       <c r="F520" s="6"/>
     </row>
-    <row r="521">
+    <row r="521" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C521" s="6"/>
       <c r="E521" s="6"/>
       <c r="F521" s="6"/>
     </row>
-    <row r="522">
+    <row r="522" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C522" s="6"/>
       <c r="E522" s="6"/>
       <c r="F522" s="6"/>
     </row>
-    <row r="523">
+    <row r="523" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C523" s="6"/>
       <c r="E523" s="6"/>
       <c r="F523" s="6"/>
     </row>
-    <row r="524">
+    <row r="524" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C524" s="6"/>
       <c r="E524" s="6"/>
       <c r="F524" s="6"/>
     </row>
-    <row r="525">
+    <row r="525" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C525" s="6"/>
       <c r="E525" s="6"/>
       <c r="F525" s="6"/>
     </row>
-    <row r="526">
+    <row r="526" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C526" s="6"/>
       <c r="E526" s="6"/>
       <c r="F526" s="6"/>
     </row>
-    <row r="527">
+    <row r="527" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C527" s="6"/>
       <c r="E527" s="6"/>
       <c r="F527" s="6"/>
     </row>
-    <row r="528">
+    <row r="528" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C528" s="6"/>
       <c r="E528" s="6"/>
       <c r="F528" s="6"/>
     </row>
-    <row r="529">
+    <row r="529" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C529" s="6"/>
       <c r="E529" s="6"/>
       <c r="F529" s="6"/>
     </row>
-    <row r="530">
+    <row r="530" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C530" s="6"/>
       <c r="E530" s="6"/>
       <c r="F530" s="6"/>
     </row>
-    <row r="531">
+    <row r="531" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C531" s="6"/>
       <c r="E531" s="6"/>
       <c r="F531" s="6"/>
     </row>
-    <row r="532">
+    <row r="532" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C532" s="6"/>
       <c r="E532" s="6"/>
       <c r="F532" s="6"/>
     </row>
-    <row r="533">
+    <row r="533" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C533" s="6"/>
       <c r="E533" s="6"/>
       <c r="F533" s="6"/>
     </row>
-    <row r="534">
+    <row r="534" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C534" s="6"/>
       <c r="E534" s="6"/>
       <c r="F534" s="6"/>
     </row>
-    <row r="535">
+    <row r="535" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C535" s="6"/>
       <c r="E535" s="6"/>
       <c r="F535" s="6"/>
     </row>
-    <row r="536">
+    <row r="536" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C536" s="6"/>
       <c r="E536" s="6"/>
       <c r="F536" s="6"/>
     </row>
-    <row r="537">
+    <row r="537" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C537" s="6"/>
       <c r="E537" s="6"/>
       <c r="F537" s="6"/>
     </row>
-    <row r="538">
+    <row r="538" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C538" s="6"/>
       <c r="E538" s="6"/>
       <c r="F538" s="6"/>
     </row>
-    <row r="539">
+    <row r="539" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C539" s="6"/>
       <c r="E539" s="6"/>
       <c r="F539" s="6"/>
     </row>
-    <row r="540">
+    <row r="540" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C540" s="6"/>
       <c r="E540" s="6"/>
       <c r="F540" s="6"/>
     </row>
-    <row r="541">
+    <row r="541" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C541" s="6"/>
       <c r="E541" s="6"/>
       <c r="F541" s="6"/>
     </row>
-    <row r="542">
+    <row r="542" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C542" s="6"/>
       <c r="E542" s="6"/>
       <c r="F542" s="6"/>
     </row>
-    <row r="543">
+    <row r="543" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C543" s="6"/>
       <c r="E543" s="6"/>
       <c r="F543" s="6"/>
     </row>
-    <row r="544">
+    <row r="544" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C544" s="6"/>
       <c r="E544" s="6"/>
       <c r="F544" s="6"/>
     </row>
-    <row r="545">
+    <row r="545" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C545" s="6"/>
       <c r="E545" s="6"/>
       <c r="F545" s="6"/>
     </row>
-    <row r="546">
+    <row r="546" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C546" s="6"/>
       <c r="E546" s="6"/>
       <c r="F546" s="6"/>
     </row>
-    <row r="547">
+    <row r="547" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C547" s="6"/>
       <c r="E547" s="6"/>
       <c r="F547" s="6"/>
     </row>
-    <row r="548">
+    <row r="548" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C548" s="6"/>
       <c r="E548" s="6"/>
       <c r="F548" s="6"/>
     </row>
-    <row r="549">
+    <row r="549" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C549" s="6"/>
       <c r="E549" s="6"/>
       <c r="F549" s="6"/>
     </row>
-    <row r="550">
+    <row r="550" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C550" s="6"/>
       <c r="E550" s="6"/>
       <c r="F550" s="6"/>
     </row>
-    <row r="551">
+    <row r="551" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C551" s="6"/>
       <c r="E551" s="6"/>
       <c r="F551" s="6"/>
     </row>
-    <row r="552">
+    <row r="552" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C552" s="6"/>
       <c r="E552" s="6"/>
       <c r="F552" s="6"/>
     </row>
-    <row r="553">
+    <row r="553" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C553" s="6"/>
       <c r="E553" s="6"/>
       <c r="F553" s="6"/>
     </row>
-    <row r="554">
+    <row r="554" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C554" s="6"/>
       <c r="E554" s="6"/>
       <c r="F554" s="6"/>
     </row>
-    <row r="555">
+    <row r="555" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C555" s="6"/>
       <c r="E555" s="6"/>
       <c r="F555" s="6"/>
     </row>
-    <row r="556">
+    <row r="556" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C556" s="6"/>
       <c r="E556" s="6"/>
       <c r="F556" s="6"/>
     </row>
-    <row r="557">
+    <row r="557" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C557" s="6"/>
       <c r="E557" s="6"/>
       <c r="F557" s="6"/>
     </row>
-    <row r="558">
+    <row r="558" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C558" s="6"/>
       <c r="E558" s="6"/>
       <c r="F558" s="6"/>
     </row>
-    <row r="559">
+    <row r="559" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C559" s="6"/>
       <c r="E559" s="6"/>
       <c r="F559" s="6"/>
     </row>
-    <row r="560">
+    <row r="560" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C560" s="6"/>
       <c r="E560" s="6"/>
       <c r="F560" s="6"/>
     </row>
-    <row r="561">
+    <row r="561" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C561" s="6"/>
       <c r="E561" s="6"/>
       <c r="F561" s="6"/>
     </row>
-    <row r="562">
+    <row r="562" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C562" s="6"/>
       <c r="E562" s="6"/>
       <c r="F562" s="6"/>
     </row>
-    <row r="563">
+    <row r="563" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C563" s="6"/>
       <c r="E563" s="6"/>
       <c r="F563" s="6"/>
     </row>
-    <row r="564">
+    <row r="564" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C564" s="6"/>
       <c r="E564" s="6"/>
       <c r="F564" s="6"/>
     </row>
-    <row r="565">
+    <row r="565" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C565" s="6"/>
       <c r="E565" s="6"/>
       <c r="F565" s="6"/>
     </row>
-    <row r="566">
+    <row r="566" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C566" s="6"/>
       <c r="E566" s="6"/>
       <c r="F566" s="6"/>
     </row>
-    <row r="567">
+    <row r="567" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C567" s="6"/>
       <c r="E567" s="6"/>
       <c r="F567" s="6"/>
     </row>
-    <row r="568">
+    <row r="568" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C568" s="6"/>
       <c r="E568" s="6"/>
       <c r="F568" s="6"/>
     </row>
-    <row r="569">
+    <row r="569" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C569" s="6"/>
       <c r="E569" s="6"/>
       <c r="F569" s="6"/>
     </row>
-    <row r="570">
+    <row r="570" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C570" s="6"/>
       <c r="E570" s="6"/>
       <c r="F570" s="6"/>
     </row>
-    <row r="571">
+    <row r="571" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C571" s="6"/>
       <c r="E571" s="6"/>
       <c r="F571" s="6"/>
     </row>
-    <row r="572">
+    <row r="572" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C572" s="6"/>
       <c r="E572" s="6"/>
       <c r="F572" s="6"/>
     </row>
-    <row r="573">
+    <row r="573" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C573" s="6"/>
       <c r="E573" s="6"/>
       <c r="F573" s="6"/>
     </row>
-    <row r="574">
+    <row r="574" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C574" s="6"/>
       <c r="E574" s="6"/>
       <c r="F574" s="6"/>
     </row>
-    <row r="575">
+    <row r="575" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C575" s="6"/>
       <c r="E575" s="6"/>
       <c r="F575" s="6"/>
     </row>
-    <row r="576">
+    <row r="576" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C576" s="6"/>
       <c r="E576" s="6"/>
       <c r="F576" s="6"/>
     </row>
-    <row r="577">
+    <row r="577" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C577" s="6"/>
       <c r="E577" s="6"/>
       <c r="F577" s="6"/>
     </row>
-    <row r="578">
+    <row r="578" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C578" s="6"/>
       <c r="E578" s="6"/>
       <c r="F578" s="6"/>
     </row>
-    <row r="579">
+    <row r="579" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C579" s="6"/>
       <c r="E579" s="6"/>
       <c r="F579" s="6"/>
     </row>
-    <row r="580">
+    <row r="580" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C580" s="6"/>
       <c r="E580" s="6"/>
       <c r="F580" s="6"/>
     </row>
-    <row r="581">
+    <row r="581" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C581" s="6"/>
       <c r="E581" s="6"/>
       <c r="F581" s="6"/>
     </row>
-    <row r="582">
+    <row r="582" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C582" s="6"/>
       <c r="E582" s="6"/>
       <c r="F582" s="6"/>
     </row>
-    <row r="583">
+    <row r="583" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C583" s="6"/>
       <c r="E583" s="6"/>
       <c r="F583" s="6"/>
     </row>
-    <row r="584">
+    <row r="584" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C584" s="6"/>
       <c r="E584" s="6"/>
       <c r="F584" s="6"/>
     </row>
-    <row r="585">
+    <row r="585" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C585" s="6"/>
       <c r="E585" s="6"/>
       <c r="F585" s="6"/>
     </row>
-    <row r="586">
+    <row r="586" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C586" s="6"/>
       <c r="E586" s="6"/>
       <c r="F586" s="6"/>
     </row>
-    <row r="587">
+    <row r="587" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C587" s="6"/>
       <c r="E587" s="6"/>
       <c r="F587" s="6"/>
     </row>
-    <row r="588">
+    <row r="588" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C588" s="6"/>
       <c r="E588" s="6"/>
       <c r="F588" s="6"/>
     </row>
-    <row r="589">
+    <row r="589" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C589" s="6"/>
       <c r="E589" s="6"/>
       <c r="F589" s="6"/>
     </row>
-    <row r="590">
+    <row r="590" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C590" s="6"/>
       <c r="E590" s="6"/>
       <c r="F590" s="6"/>
     </row>
-    <row r="591">
+    <row r="591" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C591" s="6"/>
       <c r="E591" s="6"/>
       <c r="F591" s="6"/>
     </row>
-    <row r="592">
+    <row r="592" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C592" s="6"/>
       <c r="E592" s="6"/>
       <c r="F592" s="6"/>
     </row>
-    <row r="593">
+    <row r="593" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C593" s="6"/>
       <c r="E593" s="6"/>
       <c r="F593" s="6"/>
     </row>
-    <row r="594">
+    <row r="594" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C594" s="6"/>
       <c r="E594" s="6"/>
       <c r="F594" s="6"/>
     </row>
-    <row r="595">
+    <row r="595" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C595" s="6"/>
       <c r="E595" s="6"/>
       <c r="F595" s="6"/>
     </row>
-    <row r="596">
+    <row r="596" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C596" s="6"/>
       <c r="E596" s="6"/>
       <c r="F596" s="6"/>
     </row>
-    <row r="597">
+    <row r="597" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C597" s="6"/>
       <c r="E597" s="6"/>
       <c r="F597" s="6"/>
     </row>
-    <row r="598">
+    <row r="598" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C598" s="6"/>
       <c r="E598" s="6"/>
       <c r="F598" s="6"/>
     </row>
-    <row r="599">
+    <row r="599" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C599" s="6"/>
       <c r="E599" s="6"/>
       <c r="F599" s="6"/>
     </row>
-    <row r="600">
+    <row r="600" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C600" s="6"/>
       <c r="E600" s="6"/>
       <c r="F600" s="6"/>
     </row>
-    <row r="601">
+    <row r="601" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C601" s="6"/>
       <c r="E601" s="6"/>
       <c r="F601" s="6"/>
     </row>
-    <row r="602">
+    <row r="602" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C602" s="6"/>
       <c r="E602" s="6"/>
       <c r="F602" s="6"/>
     </row>
-    <row r="603">
+    <row r="603" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C603" s="6"/>
       <c r="E603" s="6"/>
       <c r="F603" s="6"/>
     </row>
-    <row r="604">
+    <row r="604" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C604" s="6"/>
       <c r="E604" s="6"/>
       <c r="F604" s="6"/>
     </row>
-    <row r="605">
+    <row r="605" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C605" s="6"/>
       <c r="E605" s="6"/>
       <c r="F605" s="6"/>
     </row>
-    <row r="606">
+    <row r="606" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C606" s="6"/>
       <c r="E606" s="6"/>
       <c r="F606" s="6"/>
     </row>
-    <row r="607">
+    <row r="607" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C607" s="6"/>
       <c r="E607" s="6"/>
       <c r="F607" s="6"/>
     </row>
-    <row r="608">
+    <row r="608" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C608" s="6"/>
       <c r="E608" s="6"/>
       <c r="F608" s="6"/>
     </row>
-    <row r="609">
+    <row r="609" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C609" s="6"/>
       <c r="E609" s="6"/>
       <c r="F609" s="6"/>
     </row>
-    <row r="610">
+    <row r="610" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C610" s="6"/>
       <c r="E610" s="6"/>
       <c r="F610" s="6"/>
     </row>
-    <row r="611">
+    <row r="611" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C611" s="6"/>
       <c r="E611" s="6"/>
       <c r="F611" s="6"/>
     </row>
-    <row r="612">
+    <row r="612" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C612" s="6"/>
       <c r="E612" s="6"/>
       <c r="F612" s="6"/>
     </row>
-    <row r="613">
+    <row r="613" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C613" s="6"/>
       <c r="E613" s="6"/>
       <c r="F613" s="6"/>
     </row>
-    <row r="614">
+    <row r="614" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C614" s="6"/>
       <c r="E614" s="6"/>
       <c r="F614" s="6"/>
     </row>
-    <row r="615">
+    <row r="615" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C615" s="6"/>
       <c r="E615" s="6"/>
       <c r="F615" s="6"/>
     </row>
-    <row r="616">
+    <row r="616" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C616" s="6"/>
       <c r="E616" s="6"/>
       <c r="F616" s="6"/>
     </row>
-    <row r="617">
+    <row r="617" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C617" s="6"/>
       <c r="E617" s="6"/>
       <c r="F617" s="6"/>
     </row>
-    <row r="618">
+    <row r="618" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C618" s="6"/>
       <c r="E618" s="6"/>
       <c r="F618" s="6"/>
     </row>
-    <row r="619">
+    <row r="619" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C619" s="6"/>
       <c r="E619" s="6"/>
       <c r="F619" s="6"/>
     </row>
-    <row r="620">
+    <row r="620" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C620" s="6"/>
       <c r="E620" s="6"/>
       <c r="F620" s="6"/>
     </row>
-    <row r="621">
+    <row r="621" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C621" s="6"/>
       <c r="E621" s="6"/>
       <c r="F621" s="6"/>
     </row>
-    <row r="622">
+    <row r="622" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C622" s="6"/>
       <c r="E622" s="6"/>
       <c r="F622" s="6"/>
     </row>
-    <row r="623">
+    <row r="623" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C623" s="6"/>
       <c r="E623" s="6"/>
       <c r="F623" s="6"/>
     </row>
-    <row r="624">
+    <row r="624" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C624" s="6"/>
       <c r="E624" s="6"/>
       <c r="F624" s="6"/>
     </row>
-    <row r="625">
+    <row r="625" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C625" s="6"/>
       <c r="E625" s="6"/>
       <c r="F625" s="6"/>
     </row>
-    <row r="626">
+    <row r="626" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C626" s="6"/>
       <c r="E626" s="6"/>
       <c r="F626" s="6"/>
     </row>
-    <row r="627">
+    <row r="627" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C627" s="6"/>
       <c r="E627" s="6"/>
       <c r="F627" s="6"/>
     </row>
-    <row r="628">
+    <row r="628" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C628" s="6"/>
       <c r="E628" s="6"/>
       <c r="F628" s="6"/>
     </row>
-    <row r="629">
+    <row r="629" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C629" s="6"/>
       <c r="E629" s="6"/>
       <c r="F629" s="6"/>
     </row>
-    <row r="630">
+    <row r="630" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C630" s="6"/>
       <c r="E630" s="6"/>
       <c r="F630" s="6"/>
     </row>
-    <row r="631">
+    <row r="631" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C631" s="6"/>
       <c r="E631" s="6"/>
       <c r="F631" s="6"/>
     </row>
-    <row r="632">
+    <row r="632" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C632" s="6"/>
       <c r="E632" s="6"/>
       <c r="F632" s="6"/>
     </row>
-    <row r="633">
+    <row r="633" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C633" s="6"/>
       <c r="E633" s="6"/>
       <c r="F633" s="6"/>
     </row>
-    <row r="634">
+    <row r="634" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C634" s="6"/>
       <c r="E634" s="6"/>
       <c r="F634" s="6"/>
     </row>
-    <row r="635">
+    <row r="635" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C635" s="6"/>
       <c r="E635" s="6"/>
       <c r="F635" s="6"/>
     </row>
-    <row r="636">
+    <row r="636" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C636" s="6"/>
       <c r="E636" s="6"/>
       <c r="F636" s="6"/>
     </row>
-    <row r="637">
+    <row r="637" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C637" s="6"/>
       <c r="E637" s="6"/>
       <c r="F637" s="6"/>
     </row>
-    <row r="638">
+    <row r="638" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C638" s="6"/>
       <c r="E638" s="6"/>
       <c r="F638" s="6"/>
     </row>
-    <row r="639">
+    <row r="639" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C639" s="6"/>
       <c r="E639" s="6"/>
       <c r="F639" s="6"/>
     </row>
-    <row r="640">
+    <row r="640" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C640" s="6"/>
       <c r="E640" s="6"/>
       <c r="F640" s="6"/>
     </row>
-    <row r="641">
+    <row r="641" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C641" s="6"/>
       <c r="E641" s="6"/>
       <c r="F641" s="6"/>
     </row>
-    <row r="642">
+    <row r="642" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C642" s="6"/>
       <c r="E642" s="6"/>
       <c r="F642" s="6"/>
     </row>
-    <row r="643">
+    <row r="643" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C643" s="6"/>
       <c r="E643" s="6"/>
       <c r="F643" s="6"/>
     </row>
-    <row r="644">
+    <row r="644" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C644" s="6"/>
       <c r="E644" s="6"/>
       <c r="F644" s="6"/>
     </row>
-    <row r="645">
+    <row r="645" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C645" s="6"/>
       <c r="E645" s="6"/>
       <c r="F645" s="6"/>
     </row>
-    <row r="646">
+    <row r="646" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C646" s="6"/>
       <c r="E646" s="6"/>
       <c r="F646" s="6"/>
     </row>
-    <row r="647">
+    <row r="647" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C647" s="6"/>
       <c r="E647" s="6"/>
       <c r="F647" s="6"/>
     </row>
-    <row r="648">
+    <row r="648" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C648" s="6"/>
       <c r="E648" s="6"/>
       <c r="F648" s="6"/>
     </row>
-    <row r="649">
+    <row r="649" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C649" s="6"/>
       <c r="E649" s="6"/>
       <c r="F649" s="6"/>
     </row>
-    <row r="650">
+    <row r="650" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C650" s="6"/>
       <c r="E650" s="6"/>
       <c r="F650" s="6"/>
     </row>
-    <row r="651">
+    <row r="651" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C651" s="6"/>
       <c r="E651" s="6"/>
       <c r="F651" s="6"/>
     </row>
-    <row r="652">
+    <row r="652" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C652" s="6"/>
       <c r="E652" s="6"/>
       <c r="F652" s="6"/>
     </row>
-    <row r="653">
+    <row r="653" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C653" s="6"/>
       <c r="E653" s="6"/>
       <c r="F653" s="6"/>
     </row>
-    <row r="654">
+    <row r="654" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C654" s="6"/>
       <c r="E654" s="6"/>
       <c r="F654" s="6"/>
     </row>
-    <row r="655">
+    <row r="655" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C655" s="6"/>
       <c r="E655" s="6"/>
       <c r="F655" s="6"/>
     </row>
-    <row r="656">
+    <row r="656" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C656" s="6"/>
       <c r="E656" s="6"/>
       <c r="F656" s="6"/>
     </row>
-    <row r="657">
+    <row r="657" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C657" s="6"/>
       <c r="E657" s="6"/>
       <c r="F657" s="6"/>
     </row>
-    <row r="658">
+    <row r="658" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C658" s="6"/>
       <c r="E658" s="6"/>
       <c r="F658" s="6"/>
     </row>
-    <row r="659">
+    <row r="659" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C659" s="6"/>
       <c r="E659" s="6"/>
       <c r="F659" s="6"/>
     </row>
-    <row r="660">
+    <row r="660" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C660" s="6"/>
       <c r="E660" s="6"/>
       <c r="F660" s="6"/>
     </row>
-    <row r="661">
+    <row r="661" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C661" s="6"/>
       <c r="E661" s="6"/>
       <c r="F661" s="6"/>
     </row>
-    <row r="662">
+    <row r="662" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C662" s="6"/>
       <c r="E662" s="6"/>
       <c r="F662" s="6"/>
     </row>
-    <row r="663">
+    <row r="663" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C663" s="6"/>
       <c r="E663" s="6"/>
       <c r="F663" s="6"/>
     </row>
-    <row r="664">
+    <row r="664" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C664" s="6"/>
       <c r="E664" s="6"/>
       <c r="F664" s="6"/>
     </row>
-    <row r="665">
+    <row r="665" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C665" s="6"/>
       <c r="E665" s="6"/>
       <c r="F665" s="6"/>
     </row>
-    <row r="666">
+    <row r="666" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C666" s="6"/>
       <c r="E666" s="6"/>
       <c r="F666" s="6"/>
     </row>
-    <row r="667">
+    <row r="667" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C667" s="6"/>
       <c r="E667" s="6"/>
       <c r="F667" s="6"/>
     </row>
-    <row r="668">
+    <row r="668" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C668" s="6"/>
       <c r="E668" s="6"/>
       <c r="F668" s="6"/>
     </row>
-    <row r="669">
+    <row r="669" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C669" s="6"/>
       <c r="E669" s="6"/>
       <c r="F669" s="6"/>
     </row>
-    <row r="670">
+    <row r="670" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C670" s="6"/>
       <c r="E670" s="6"/>
       <c r="F670" s="6"/>
     </row>
-    <row r="671">
+    <row r="671" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C671" s="6"/>
       <c r="E671" s="6"/>
       <c r="F671" s="6"/>
     </row>
-    <row r="672">
+    <row r="672" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C672" s="6"/>
       <c r="E672" s="6"/>
       <c r="F672" s="6"/>
     </row>
-    <row r="673">
+    <row r="673" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C673" s="6"/>
       <c r="E673" s="6"/>
       <c r="F673" s="6"/>
     </row>
-    <row r="674">
+    <row r="674" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C674" s="6"/>
       <c r="E674" s="6"/>
       <c r="F674" s="6"/>
     </row>
-    <row r="675">
+    <row r="675" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C675" s="6"/>
       <c r="E675" s="6"/>
       <c r="F675" s="6"/>
     </row>
-    <row r="676">
+    <row r="676" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C676" s="6"/>
       <c r="E676" s="6"/>
       <c r="F676" s="6"/>
     </row>
-    <row r="677">
+    <row r="677" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C677" s="6"/>
       <c r="E677" s="6"/>
       <c r="F677" s="6"/>
     </row>
-    <row r="678">
+    <row r="678" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C678" s="6"/>
       <c r="E678" s="6"/>
       <c r="F678" s="6"/>
     </row>
-    <row r="679">
+    <row r="679" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C679" s="6"/>
       <c r="E679" s="6"/>
       <c r="F679" s="6"/>
     </row>
-    <row r="680">
+    <row r="680" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C680" s="6"/>
       <c r="E680" s="6"/>
       <c r="F680" s="6"/>
     </row>
-    <row r="681">
+    <row r="681" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C681" s="6"/>
       <c r="E681" s="6"/>
       <c r="F681" s="6"/>
     </row>
-    <row r="682">
+    <row r="682" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C682" s="6"/>
       <c r="E682" s="6"/>
       <c r="F682" s="6"/>
     </row>
-    <row r="683">
+    <row r="683" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C683" s="6"/>
       <c r="E683" s="6"/>
       <c r="F683" s="6"/>
     </row>
-    <row r="684">
+    <row r="684" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C684" s="6"/>
       <c r="E684" s="6"/>
       <c r="F684" s="6"/>
     </row>
-    <row r="685">
+    <row r="685" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C685" s="6"/>
       <c r="E685" s="6"/>
       <c r="F685" s="6"/>
     </row>
-    <row r="686">
+    <row r="686" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C686" s="6"/>
       <c r="E686" s="6"/>
       <c r="F686" s="6"/>
     </row>
-    <row r="687">
+    <row r="687" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C687" s="6"/>
       <c r="E687" s="6"/>
       <c r="F687" s="6"/>
     </row>
-    <row r="688">
+    <row r="688" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C688" s="6"/>
       <c r="E688" s="6"/>
       <c r="F688" s="6"/>
     </row>
-    <row r="689">
+    <row r="689" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C689" s="6"/>
       <c r="E689" s="6"/>
       <c r="F689" s="6"/>
     </row>
-    <row r="690">
+    <row r="690" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C690" s="6"/>
       <c r="E690" s="6"/>
       <c r="F690" s="6"/>
     </row>
-    <row r="691">
+    <row r="691" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C691" s="6"/>
       <c r="E691" s="6"/>
       <c r="F691" s="6"/>
     </row>
-    <row r="692">
+    <row r="692" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C692" s="6"/>
       <c r="E692" s="6"/>
       <c r="F692" s="6"/>
     </row>
-    <row r="693">
+    <row r="693" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C693" s="6"/>
       <c r="E693" s="6"/>
       <c r="F693" s="6"/>
     </row>
-    <row r="694">
+    <row r="694" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C694" s="6"/>
       <c r="E694" s="6"/>
       <c r="F694" s="6"/>
     </row>
-    <row r="695">
+    <row r="695" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C695" s="6"/>
       <c r="E695" s="6"/>
       <c r="F695" s="6"/>
     </row>
-    <row r="696">
+    <row r="696" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C696" s="6"/>
       <c r="E696" s="6"/>
       <c r="F696" s="6"/>
     </row>
-    <row r="697">
+    <row r="697" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C697" s="6"/>
       <c r="E697" s="6"/>
       <c r="F697" s="6"/>
     </row>
-    <row r="698">
+    <row r="698" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C698" s="6"/>
       <c r="E698" s="6"/>
       <c r="F698" s="6"/>
     </row>
-    <row r="699">
+    <row r="699" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C699" s="6"/>
       <c r="E699" s="6"/>
       <c r="F699" s="6"/>
     </row>
-    <row r="700">
+    <row r="700" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C700" s="6"/>
       <c r="E700" s="6"/>
       <c r="F700" s="6"/>
     </row>
-    <row r="701">
+    <row r="701" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C701" s="6"/>
       <c r="E701" s="6"/>
       <c r="F701" s="6"/>
     </row>
-    <row r="702">
+    <row r="702" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C702" s="6"/>
       <c r="E702" s="6"/>
       <c r="F702" s="6"/>
     </row>
-    <row r="703">
+    <row r="703" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C703" s="6"/>
       <c r="E703" s="6"/>
       <c r="F703" s="6"/>
     </row>
-    <row r="704">
+    <row r="704" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C704" s="6"/>
       <c r="E704" s="6"/>
       <c r="F704" s="6"/>
     </row>
-    <row r="705">
+    <row r="705" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C705" s="6"/>
       <c r="E705" s="6"/>
       <c r="F705" s="6"/>
     </row>
-    <row r="706">
+    <row r="706" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C706" s="6"/>
       <c r="E706" s="6"/>
       <c r="F706" s="6"/>
     </row>
-    <row r="707">
+    <row r="707" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C707" s="6"/>
       <c r="E707" s="6"/>
       <c r="F707" s="6"/>
     </row>
-    <row r="708">
+    <row r="708" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C708" s="6"/>
       <c r="E708" s="6"/>
       <c r="F708" s="6"/>
     </row>
-    <row r="709">
+    <row r="709" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C709" s="6"/>
       <c r="E709" s="6"/>
       <c r="F709" s="6"/>
     </row>
-    <row r="710">
+    <row r="710" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C710" s="6"/>
       <c r="E710" s="6"/>
       <c r="F710" s="6"/>
     </row>
-    <row r="711">
+    <row r="711" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C711" s="6"/>
       <c r="E711" s="6"/>
       <c r="F711" s="6"/>
     </row>
-    <row r="712">
+    <row r="712" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C712" s="6"/>
       <c r="E712" s="6"/>
       <c r="F712" s="6"/>
     </row>
-    <row r="713">
+    <row r="713" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C713" s="6"/>
       <c r="E713" s="6"/>
       <c r="F713" s="6"/>
     </row>
-    <row r="714">
+    <row r="714" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C714" s="6"/>
       <c r="E714" s="6"/>
       <c r="F714" s="6"/>
     </row>
-    <row r="715">
+    <row r="715" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C715" s="6"/>
       <c r="E715" s="6"/>
       <c r="F715" s="6"/>
     </row>
-    <row r="716">
+    <row r="716" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C716" s="6"/>
       <c r="E716" s="6"/>
       <c r="F716" s="6"/>
     </row>
-    <row r="717">
+    <row r="717" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C717" s="6"/>
       <c r="E717" s="6"/>
       <c r="F717" s="6"/>
     </row>
-    <row r="718">
+    <row r="718" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C718" s="6"/>
       <c r="E718" s="6"/>
       <c r="F718" s="6"/>
     </row>
-    <row r="719">
+    <row r="719" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C719" s="6"/>
       <c r="E719" s="6"/>
       <c r="F719" s="6"/>
     </row>
-    <row r="720">
+    <row r="720" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C720" s="6"/>
       <c r="E720" s="6"/>
       <c r="F720" s="6"/>
     </row>
-    <row r="721">
+    <row r="721" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C721" s="6"/>
       <c r="E721" s="6"/>
       <c r="F721" s="6"/>
     </row>
-    <row r="722">
+    <row r="722" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C722" s="6"/>
       <c r="E722" s="6"/>
       <c r="F722" s="6"/>
     </row>
-    <row r="723">
+    <row r="723" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C723" s="6"/>
       <c r="E723" s="6"/>
       <c r="F723" s="6"/>
     </row>
-    <row r="724">
+    <row r="724" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C724" s="6"/>
       <c r="E724" s="6"/>
       <c r="F724" s="6"/>
     </row>
-    <row r="725">
+    <row r="725" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C725" s="6"/>
       <c r="E725" s="6"/>
       <c r="F725" s="6"/>
     </row>
-    <row r="726">
+    <row r="726" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C726" s="6"/>
       <c r="E726" s="6"/>
       <c r="F726" s="6"/>
     </row>
-    <row r="727">
+    <row r="727" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C727" s="6"/>
       <c r="E727" s="6"/>
       <c r="F727" s="6"/>
     </row>
-    <row r="728">
+    <row r="728" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C728" s="6"/>
       <c r="E728" s="6"/>
       <c r="F728" s="6"/>
     </row>
-    <row r="729">
+    <row r="729" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C729" s="6"/>
       <c r="E729" s="6"/>
       <c r="F729" s="6"/>
     </row>
-    <row r="730">
+    <row r="730" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C730" s="6"/>
       <c r="E730" s="6"/>
       <c r="F730" s="6"/>
     </row>
-    <row r="731">
+    <row r="731" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C731" s="6"/>
       <c r="E731" s="6"/>
       <c r="F731" s="6"/>
     </row>
-    <row r="732">
+    <row r="732" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C732" s="6"/>
       <c r="E732" s="6"/>
       <c r="F732" s="6"/>
     </row>
-    <row r="733">
+    <row r="733" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C733" s="6"/>
       <c r="E733" s="6"/>
       <c r="F733" s="6"/>
     </row>
-    <row r="734">
+    <row r="734" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C734" s="6"/>
       <c r="E734" s="6"/>
       <c r="F734" s="6"/>
     </row>
-    <row r="735">
+    <row r="735" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C735" s="6"/>
       <c r="E735" s="6"/>
       <c r="F735" s="6"/>
     </row>
-    <row r="736">
+    <row r="736" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C736" s="6"/>
       <c r="E736" s="6"/>
       <c r="F736" s="6"/>
     </row>
-    <row r="737">
+    <row r="737" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C737" s="6"/>
       <c r="E737" s="6"/>
       <c r="F737" s="6"/>
     </row>
-    <row r="738">
+    <row r="738" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C738" s="6"/>
       <c r="E738" s="6"/>
       <c r="F738" s="6"/>
     </row>
-    <row r="739">
+    <row r="739" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C739" s="6"/>
       <c r="E739" s="6"/>
       <c r="F739" s="6"/>
     </row>
-    <row r="740">
+    <row r="740" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C740" s="6"/>
       <c r="E740" s="6"/>
       <c r="F740" s="6"/>
     </row>
-    <row r="741">
+    <row r="741" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C741" s="6"/>
       <c r="E741" s="6"/>
       <c r="F741" s="6"/>
     </row>
-    <row r="742">
+    <row r="742" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C742" s="6"/>
       <c r="E742" s="6"/>
       <c r="F742" s="6"/>
     </row>
-    <row r="743">
+    <row r="743" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C743" s="6"/>
       <c r="E743" s="6"/>
       <c r="F743" s="6"/>
     </row>
-    <row r="744">
+    <row r="744" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C744" s="6"/>
       <c r="E744" s="6"/>
       <c r="F744" s="6"/>
     </row>
-    <row r="745">
+    <row r="745" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C745" s="6"/>
       <c r="E745" s="6"/>
       <c r="F745" s="6"/>
     </row>
-    <row r="746">
+    <row r="746" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C746" s="6"/>
       <c r="E746" s="6"/>
       <c r="F746" s="6"/>
     </row>
-    <row r="747">
+    <row r="747" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C747" s="6"/>
       <c r="E747" s="6"/>
       <c r="F747" s="6"/>
     </row>
-    <row r="748">
+    <row r="748" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C748" s="6"/>
       <c r="E748" s="6"/>
       <c r="F748" s="6"/>
     </row>
-    <row r="749">
+    <row r="749" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C749" s="6"/>
       <c r="E749" s="6"/>
       <c r="F749" s="6"/>
     </row>
-    <row r="750">
+    <row r="750" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C750" s="6"/>
       <c r="E750" s="6"/>
       <c r="F750" s="6"/>
     </row>
-    <row r="751">
+    <row r="751" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C751" s="6"/>
       <c r="E751" s="6"/>
       <c r="F751" s="6"/>
     </row>
-    <row r="752">
+    <row r="752" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C752" s="6"/>
       <c r="E752" s="6"/>
       <c r="F752" s="6"/>
     </row>
-    <row r="753">
+    <row r="753" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C753" s="6"/>
       <c r="E753" s="6"/>
       <c r="F753" s="6"/>
     </row>
-    <row r="754">
+    <row r="754" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C754" s="6"/>
       <c r="E754" s="6"/>
       <c r="F754" s="6"/>
     </row>
-    <row r="755">
+    <row r="755" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C755" s="6"/>
       <c r="E755" s="6"/>
       <c r="F755" s="6"/>
     </row>
-    <row r="756">
+    <row r="756" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C756" s="6"/>
       <c r="E756" s="6"/>
       <c r="F756" s="6"/>
     </row>
-    <row r="757">
+    <row r="757" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C757" s="6"/>
       <c r="E757" s="6"/>
       <c r="F757" s="6"/>
     </row>
-    <row r="758">
+    <row r="758" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C758" s="6"/>
       <c r="E758" s="6"/>
       <c r="F758" s="6"/>
     </row>
-    <row r="759">
+    <row r="759" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C759" s="6"/>
       <c r="E759" s="6"/>
       <c r="F759" s="6"/>
     </row>
-    <row r="760">
+    <row r="760" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C760" s="6"/>
       <c r="E760" s="6"/>
       <c r="F760" s="6"/>
     </row>
-    <row r="761">
+    <row r="761" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C761" s="6"/>
       <c r="E761" s="6"/>
       <c r="F761" s="6"/>
     </row>
-    <row r="762">
+    <row r="762" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C762" s="6"/>
       <c r="E762" s="6"/>
       <c r="F762" s="6"/>
     </row>
-    <row r="763">
+    <row r="763" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C763" s="6"/>
       <c r="E763" s="6"/>
       <c r="F763" s="6"/>
     </row>
-    <row r="764">
+    <row r="764" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C764" s="6"/>
       <c r="E764" s="6"/>
       <c r="F764" s="6"/>
     </row>
-    <row r="765">
+    <row r="765" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C765" s="6"/>
       <c r="E765" s="6"/>
       <c r="F765" s="6"/>
     </row>
-    <row r="766">
+    <row r="766" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C766" s="6"/>
       <c r="E766" s="6"/>
       <c r="F766" s="6"/>
     </row>
-    <row r="767">
+    <row r="767" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C767" s="6"/>
       <c r="E767" s="6"/>
       <c r="F767" s="6"/>
     </row>
-    <row r="768">
+    <row r="768" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C768" s="6"/>
       <c r="E768" s="6"/>
       <c r="F768" s="6"/>
     </row>
-    <row r="769">
+    <row r="769" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C769" s="6"/>
       <c r="E769" s="6"/>
       <c r="F769" s="6"/>
     </row>
-    <row r="770">
+    <row r="770" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C770" s="6"/>
       <c r="E770" s="6"/>
       <c r="F770" s="6"/>
     </row>
-    <row r="771">
+    <row r="771" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C771" s="6"/>
       <c r="E771" s="6"/>
       <c r="F771" s="6"/>
     </row>
-    <row r="772">
+    <row r="772" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C772" s="6"/>
       <c r="E772" s="6"/>
       <c r="F772" s="6"/>
     </row>
-    <row r="773">
+    <row r="773" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C773" s="6"/>
       <c r="E773" s="6"/>
       <c r="F773" s="6"/>
     </row>
-    <row r="774">
+    <row r="774" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C774" s="6"/>
       <c r="E774" s="6"/>
       <c r="F774" s="6"/>
     </row>
-    <row r="775">
+    <row r="775" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C775" s="6"/>
       <c r="E775" s="6"/>
       <c r="F775" s="6"/>
     </row>
-    <row r="776">
+    <row r="776" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C776" s="6"/>
       <c r="E776" s="6"/>
       <c r="F776" s="6"/>
     </row>
-    <row r="777">
+    <row r="777" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C777" s="6"/>
       <c r="E777" s="6"/>
       <c r="F777" s="6"/>
     </row>
-    <row r="778">
+    <row r="778" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C778" s="6"/>
       <c r="E778" s="6"/>
       <c r="F778" s="6"/>
     </row>
-    <row r="779">
+    <row r="779" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C779" s="6"/>
       <c r="E779" s="6"/>
       <c r="F779" s="6"/>
     </row>
-    <row r="780">
+    <row r="780" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C780" s="6"/>
       <c r="E780" s="6"/>
       <c r="F780" s="6"/>
     </row>
-    <row r="781">
+    <row r="781" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C781" s="6"/>
       <c r="E781" s="6"/>
       <c r="F781" s="6"/>
     </row>
-    <row r="782">
+    <row r="782" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C782" s="6"/>
       <c r="E782" s="6"/>
       <c r="F782" s="6"/>
     </row>
-    <row r="783">
+    <row r="783" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C783" s="6"/>
       <c r="E783" s="6"/>
       <c r="F783" s="6"/>
     </row>
-    <row r="784">
+    <row r="784" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C784" s="6"/>
       <c r="E784" s="6"/>
       <c r="F784" s="6"/>
     </row>
-    <row r="785">
+    <row r="785" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C785" s="6"/>
       <c r="E785" s="6"/>
       <c r="F785" s="6"/>
     </row>
-    <row r="786">
+    <row r="786" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C786" s="6"/>
       <c r="E786" s="6"/>
       <c r="F786" s="6"/>
     </row>
-    <row r="787">
+    <row r="787" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C787" s="6"/>
       <c r="E787" s="6"/>
       <c r="F787" s="6"/>
     </row>
-    <row r="788">
+    <row r="788" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C788" s="6"/>
       <c r="E788" s="6"/>
       <c r="F788" s="6"/>
     </row>
-    <row r="789">
+    <row r="789" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C789" s="6"/>
       <c r="E789" s="6"/>
       <c r="F789" s="6"/>
     </row>
-    <row r="790">
+    <row r="790" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C790" s="6"/>
       <c r="E790" s="6"/>
       <c r="F790" s="6"/>
     </row>
-    <row r="791">
+    <row r="791" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C791" s="6"/>
       <c r="E791" s="6"/>
       <c r="F791" s="6"/>
     </row>
-    <row r="792">
+    <row r="792" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C792" s="6"/>
       <c r="E792" s="6"/>
       <c r="F792" s="6"/>
     </row>
-    <row r="793">
+    <row r="793" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C793" s="6"/>
       <c r="E793" s="6"/>
       <c r="F793" s="6"/>
     </row>
-    <row r="794">
+    <row r="794" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C794" s="6"/>
       <c r="E794" s="6"/>
       <c r="F794" s="6"/>
     </row>
-    <row r="795">
+    <row r="795" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C795" s="6"/>
       <c r="E795" s="6"/>
       <c r="F795" s="6"/>
     </row>
-    <row r="796">
+    <row r="796" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C796" s="6"/>
       <c r="E796" s="6"/>
       <c r="F796" s="6"/>
     </row>
-    <row r="797">
+    <row r="797" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C797" s="6"/>
       <c r="E797" s="6"/>
       <c r="F797" s="6"/>
     </row>
-    <row r="798">
+    <row r="798" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C798" s="6"/>
       <c r="E798" s="6"/>
       <c r="F798" s="6"/>
     </row>
-    <row r="799">
+    <row r="799" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C799" s="6"/>
       <c r="E799" s="6"/>
       <c r="F799" s="6"/>
     </row>
-    <row r="800">
+    <row r="800" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C800" s="6"/>
       <c r="E800" s="6"/>
       <c r="F800" s="6"/>
     </row>
-    <row r="801">
+    <row r="801" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C801" s="6"/>
       <c r="E801" s="6"/>
       <c r="F801" s="6"/>
     </row>
-    <row r="802">
+    <row r="802" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C802" s="6"/>
       <c r="E802" s="6"/>
       <c r="F802" s="6"/>
     </row>
-    <row r="803">
+    <row r="803" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C803" s="6"/>
       <c r="E803" s="6"/>
       <c r="F803" s="6"/>
     </row>
-    <row r="804">
+    <row r="804" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C804" s="6"/>
       <c r="E804" s="6"/>
       <c r="F804" s="6"/>
     </row>
-    <row r="805">
+    <row r="805" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C805" s="6"/>
       <c r="E805" s="6"/>
       <c r="F805" s="6"/>
     </row>
-    <row r="806">
+    <row r="806" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C806" s="6"/>
       <c r="E806" s="6"/>
       <c r="F806" s="6"/>
     </row>
-    <row r="807">
+    <row r="807" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C807" s="6"/>
       <c r="E807" s="6"/>
       <c r="F807" s="6"/>
     </row>
-    <row r="808">
+    <row r="808" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C808" s="6"/>
       <c r="E808" s="6"/>
       <c r="F808" s="6"/>
     </row>
-    <row r="809">
+    <row r="809" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C809" s="6"/>
       <c r="E809" s="6"/>
       <c r="F809" s="6"/>
     </row>
-    <row r="810">
+    <row r="810" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C810" s="6"/>
       <c r="E810" s="6"/>
       <c r="F810" s="6"/>
     </row>
-    <row r="811">
+    <row r="811" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C811" s="6"/>
       <c r="E811" s="6"/>
       <c r="F811" s="6"/>
     </row>
-    <row r="812">
+    <row r="812" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C812" s="6"/>
       <c r="E812" s="6"/>
       <c r="F812" s="6"/>
     </row>
-    <row r="813">
+    <row r="813" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C813" s="6"/>
       <c r="E813" s="6"/>
       <c r="F813" s="6"/>
     </row>
-    <row r="814">
+    <row r="814" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C814" s="6"/>
       <c r="E814" s="6"/>
       <c r="F814" s="6"/>
     </row>
-    <row r="815">
+    <row r="815" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C815" s="6"/>
       <c r="E815" s="6"/>
       <c r="F815" s="6"/>
     </row>
-    <row r="816">
+    <row r="816" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C816" s="6"/>
       <c r="E816" s="6"/>
       <c r="F816" s="6"/>
     </row>
-    <row r="817">
+    <row r="817" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C817" s="6"/>
       <c r="E817" s="6"/>
       <c r="F817" s="6"/>
     </row>
-    <row r="818">
+    <row r="818" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C818" s="6"/>
       <c r="E818" s="6"/>
       <c r="F818" s="6"/>
     </row>
-    <row r="819">
+    <row r="819" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C819" s="6"/>
       <c r="E819" s="6"/>
       <c r="F819" s="6"/>
     </row>
-    <row r="820">
+    <row r="820" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C820" s="6"/>
       <c r="E820" s="6"/>
       <c r="F820" s="6"/>
     </row>
-    <row r="821">
+    <row r="821" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C821" s="6"/>
       <c r="E821" s="6"/>
       <c r="F821" s="6"/>
     </row>
-    <row r="822">
+    <row r="822" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C822" s="6"/>
       <c r="E822" s="6"/>
       <c r="F822" s="6"/>
     </row>
-    <row r="823">
+    <row r="823" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C823" s="6"/>
       <c r="E823" s="6"/>
       <c r="F823" s="6"/>
     </row>
-    <row r="824">
+    <row r="824" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C824" s="6"/>
       <c r="E824" s="6"/>
       <c r="F824" s="6"/>
     </row>
-    <row r="825">
+    <row r="825" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C825" s="6"/>
       <c r="E825" s="6"/>
       <c r="F825" s="6"/>
     </row>
-    <row r="826">
+    <row r="826" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C826" s="6"/>
       <c r="E826" s="6"/>
       <c r="F826" s="6"/>
     </row>
-    <row r="827">
+    <row r="827" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C827" s="6"/>
       <c r="E827" s="6"/>
       <c r="F827" s="6"/>
     </row>
-    <row r="828">
+    <row r="828" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C828" s="6"/>
       <c r="E828" s="6"/>
       <c r="F828" s="6"/>
     </row>
-    <row r="829">
+    <row r="829" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C829" s="6"/>
       <c r="E829" s="6"/>
       <c r="F829" s="6"/>
     </row>
-    <row r="830">
+    <row r="830" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C830" s="6"/>
       <c r="E830" s="6"/>
       <c r="F830" s="6"/>
     </row>
-    <row r="831">
+    <row r="831" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C831" s="6"/>
       <c r="E831" s="6"/>
       <c r="F831" s="6"/>
     </row>
-    <row r="832">
+    <row r="832" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C832" s="6"/>
       <c r="E832" s="6"/>
       <c r="F832" s="6"/>
     </row>
-    <row r="833">
+    <row r="833" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C833" s="6"/>
       <c r="E833" s="6"/>
       <c r="F833" s="6"/>
     </row>
-    <row r="834">
+    <row r="834" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C834" s="6"/>
       <c r="E834" s="6"/>
       <c r="F834" s="6"/>
     </row>
-    <row r="835">
+    <row r="835" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C835" s="6"/>
       <c r="E835" s="6"/>
       <c r="F835" s="6"/>
     </row>
-    <row r="836">
+    <row r="836" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C836" s="6"/>
       <c r="E836" s="6"/>
       <c r="F836" s="6"/>
     </row>
-    <row r="837">
+    <row r="837" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C837" s="6"/>
       <c r="E837" s="6"/>
       <c r="F837" s="6"/>
     </row>
-    <row r="838">
+    <row r="838" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C838" s="6"/>
       <c r="E838" s="6"/>
       <c r="F838" s="6"/>
     </row>
-    <row r="839">
+    <row r="839" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C839" s="6"/>
       <c r="E839" s="6"/>
       <c r="F839" s="6"/>
     </row>
-    <row r="840">
+    <row r="840" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C840" s="6"/>
       <c r="E840" s="6"/>
       <c r="F840" s="6"/>
     </row>
-    <row r="841">
+    <row r="841" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C841" s="6"/>
       <c r="E841" s="6"/>
       <c r="F841" s="6"/>
     </row>
-    <row r="842">
+    <row r="842" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C842" s="6"/>
       <c r="E842" s="6"/>
       <c r="F842" s="6"/>
     </row>
-    <row r="843">
+    <row r="843" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C843" s="6"/>
       <c r="E843" s="6"/>
       <c r="F843" s="6"/>
     </row>
-    <row r="844">
+    <row r="844" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C844" s="6"/>
       <c r="E844" s="6"/>
       <c r="F844" s="6"/>
     </row>
-    <row r="845">
+    <row r="845" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C845" s="6"/>
       <c r="E845" s="6"/>
       <c r="F845" s="6"/>
     </row>
-    <row r="846">
+    <row r="846" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C846" s="6"/>
       <c r="E846" s="6"/>
       <c r="F846" s="6"/>
     </row>
-    <row r="847">
+    <row r="847" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C847" s="6"/>
       <c r="E847" s="6"/>
       <c r="F847" s="6"/>
     </row>
-    <row r="848">
+    <row r="848" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C848" s="6"/>
       <c r="E848" s="6"/>
       <c r="F848" s="6"/>
     </row>
-    <row r="849">
+    <row r="849" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C849" s="6"/>
       <c r="E849" s="6"/>
       <c r="F849" s="6"/>
     </row>
-    <row r="850">
+    <row r="850" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C850" s="6"/>
       <c r="E850" s="6"/>
       <c r="F850" s="6"/>
     </row>
-    <row r="851">
+    <row r="851" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C851" s="6"/>
       <c r="E851" s="6"/>
       <c r="F851" s="6"/>
     </row>
-    <row r="852">
+    <row r="852" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C852" s="6"/>
       <c r="E852" s="6"/>
       <c r="F852" s="6"/>
     </row>
-    <row r="853">
+    <row r="853" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C853" s="6"/>
       <c r="E853" s="6"/>
       <c r="F853" s="6"/>
     </row>
-    <row r="854">
+    <row r="854" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C854" s="6"/>
       <c r="E854" s="6"/>
       <c r="F854" s="6"/>
     </row>
-    <row r="855">
+    <row r="855" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C855" s="6"/>
       <c r="E855" s="6"/>
       <c r="F855" s="6"/>
     </row>
-    <row r="856">
+    <row r="856" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C856" s="6"/>
       <c r="E856" s="6"/>
       <c r="F856" s="6"/>
     </row>
-    <row r="857">
+    <row r="857" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C857" s="6"/>
       <c r="E857" s="6"/>
       <c r="F857" s="6"/>
     </row>
-    <row r="858">
+    <row r="858" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C858" s="6"/>
       <c r="E858" s="6"/>
       <c r="F858" s="6"/>
     </row>
-    <row r="859">
+    <row r="859" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C859" s="6"/>
       <c r="E859" s="6"/>
       <c r="F859" s="6"/>
     </row>
-    <row r="860">
+    <row r="860" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C860" s="6"/>
       <c r="E860" s="6"/>
       <c r="F860" s="6"/>
     </row>
-    <row r="861">
+    <row r="861" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C861" s="6"/>
       <c r="E861" s="6"/>
       <c r="F861" s="6"/>
     </row>
-    <row r="862">
+    <row r="862" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C862" s="6"/>
       <c r="E862" s="6"/>
       <c r="F862" s="6"/>
     </row>
-    <row r="863">
+    <row r="863" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C863" s="6"/>
       <c r="E863" s="6"/>
       <c r="F863" s="6"/>
     </row>
-    <row r="864">
+    <row r="864" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C864" s="6"/>
       <c r="E864" s="6"/>
       <c r="F864" s="6"/>
     </row>
-    <row r="865">
+    <row r="865" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C865" s="6"/>
       <c r="E865" s="6"/>
       <c r="F865" s="6"/>
     </row>
-    <row r="866">
+    <row r="866" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C866" s="6"/>
       <c r="E866" s="6"/>
       <c r="F866" s="6"/>
     </row>
-    <row r="867">
+    <row r="867" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C867" s="6"/>
       <c r="E867" s="6"/>
       <c r="F867" s="6"/>
     </row>
-    <row r="868">
+    <row r="868" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C868" s="6"/>
       <c r="E868" s="6"/>
       <c r="F868" s="6"/>
     </row>
-    <row r="869">
+    <row r="869" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C869" s="6"/>
       <c r="E869" s="6"/>
       <c r="F869" s="6"/>
     </row>
-    <row r="870">
+    <row r="870" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C870" s="6"/>
       <c r="E870" s="6"/>
       <c r="F870" s="6"/>
     </row>
-    <row r="871">
+    <row r="871" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C871" s="6"/>
       <c r="E871" s="6"/>
       <c r="F871" s="6"/>
     </row>
-    <row r="872">
+    <row r="872" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C872" s="6"/>
       <c r="E872" s="6"/>
       <c r="F872" s="6"/>
     </row>
-    <row r="873">
+    <row r="873" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C873" s="6"/>
       <c r="E873" s="6"/>
       <c r="F873" s="6"/>
     </row>
-    <row r="874">
+    <row r="874" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C874" s="6"/>
       <c r="E874" s="6"/>
       <c r="F874" s="6"/>
     </row>
-    <row r="875">
+    <row r="875" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C875" s="6"/>
       <c r="E875" s="6"/>
       <c r="F875" s="6"/>
     </row>
-    <row r="876">
+    <row r="876" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C876" s="6"/>
       <c r="E876" s="6"/>
       <c r="F876" s="6"/>
     </row>
-    <row r="877">
+    <row r="877" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C877" s="6"/>
       <c r="E877" s="6"/>
       <c r="F877" s="6"/>
     </row>
-    <row r="878">
+    <row r="878" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C878" s="6"/>
       <c r="E878" s="6"/>
       <c r="F878" s="6"/>
     </row>
-    <row r="879">
+    <row r="879" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C879" s="6"/>
       <c r="E879" s="6"/>
       <c r="F879" s="6"/>
     </row>
-    <row r="880">
+    <row r="880" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C880" s="6"/>
       <c r="E880" s="6"/>
       <c r="F880" s="6"/>
     </row>
-    <row r="881">
+    <row r="881" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C881" s="6"/>
       <c r="E881" s="6"/>
       <c r="F881" s="6"/>
     </row>
-    <row r="882">
+    <row r="882" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C882" s="6"/>
       <c r="E882" s="6"/>
       <c r="F882" s="6"/>
     </row>
-    <row r="883">
+    <row r="883" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C883" s="6"/>
       <c r="E883" s="6"/>
       <c r="F883" s="6"/>
     </row>
-    <row r="884">
+    <row r="884" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C884" s="6"/>
       <c r="E884" s="6"/>
       <c r="F884" s="6"/>
     </row>
-    <row r="885">
+    <row r="885" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C885" s="6"/>
       <c r="E885" s="6"/>
       <c r="F885" s="6"/>
     </row>
-    <row r="886">
+    <row r="886" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C886" s="6"/>
       <c r="E886" s="6"/>
       <c r="F886" s="6"/>
     </row>
-    <row r="887">
+    <row r="887" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C887" s="6"/>
       <c r="E887" s="6"/>
       <c r="F887" s="6"/>
     </row>
-    <row r="888">
+    <row r="888" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C888" s="6"/>
       <c r="E888" s="6"/>
       <c r="F888" s="6"/>
     </row>
-    <row r="889">
+    <row r="889" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C889" s="6"/>
       <c r="E889" s="6"/>
       <c r="F889" s="6"/>
     </row>
-    <row r="890">
+    <row r="890" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C890" s="6"/>
       <c r="E890" s="6"/>
       <c r="F890" s="6"/>
     </row>
-    <row r="891">
+    <row r="891" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C891" s="6"/>
       <c r="E891" s="6"/>
       <c r="F891" s="6"/>
     </row>
-    <row r="892">
+    <row r="892" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C892" s="6"/>
       <c r="E892" s="6"/>
       <c r="F892" s="6"/>
     </row>
-    <row r="893">
+    <row r="893" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C893" s="6"/>
       <c r="E893" s="6"/>
       <c r="F893" s="6"/>
     </row>
-    <row r="894">
+    <row r="894" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C894" s="6"/>
       <c r="E894" s="6"/>
       <c r="F894" s="6"/>
     </row>
-    <row r="895">
+    <row r="895" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C895" s="6"/>
       <c r="E895" s="6"/>
       <c r="F895" s="6"/>
     </row>
-    <row r="896">
+    <row r="896" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C896" s="6"/>
       <c r="E896" s="6"/>
       <c r="F896" s="6"/>
     </row>
-    <row r="897">
+    <row r="897" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C897" s="6"/>
       <c r="E897" s="6"/>
       <c r="F897" s="6"/>
     </row>
-    <row r="898">
+    <row r="898" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C898" s="6"/>
       <c r="E898" s="6"/>
       <c r="F898" s="6"/>
     </row>
-    <row r="899">
+    <row r="899" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C899" s="6"/>
       <c r="E899" s="6"/>
       <c r="F899" s="6"/>
     </row>
-    <row r="900">
+    <row r="900" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C900" s="6"/>
       <c r="E900" s="6"/>
       <c r="F900" s="6"/>
     </row>
-    <row r="901">
+    <row r="901" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C901" s="6"/>
       <c r="E901" s="6"/>
       <c r="F901" s="6"/>
     </row>
-    <row r="902">
+    <row r="902" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C902" s="6"/>
       <c r="E902" s="6"/>
       <c r="F902" s="6"/>
     </row>
-    <row r="903">
+    <row r="903" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C903" s="6"/>
       <c r="E903" s="6"/>
       <c r="F903" s="6"/>
     </row>
-    <row r="904">
+    <row r="904" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C904" s="6"/>
       <c r="E904" s="6"/>
       <c r="F904" s="6"/>
     </row>
-    <row r="905">
+    <row r="905" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C905" s="6"/>
       <c r="E905" s="6"/>
       <c r="F905" s="6"/>
     </row>
-    <row r="906">
+    <row r="906" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C906" s="6"/>
       <c r="E906" s="6"/>
       <c r="F906" s="6"/>
     </row>
-    <row r="907">
+    <row r="907" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C907" s="6"/>
       <c r="E907" s="6"/>
       <c r="F907" s="6"/>
     </row>
-    <row r="908">
+    <row r="908" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C908" s="6"/>
       <c r="E908" s="6"/>
       <c r="F908" s="6"/>
     </row>
-    <row r="909">
+    <row r="909" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C909" s="6"/>
       <c r="E909" s="6"/>
       <c r="F909" s="6"/>
     </row>
-    <row r="910">
+    <row r="910" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C910" s="6"/>
       <c r="E910" s="6"/>
       <c r="F910" s="6"/>
     </row>
-    <row r="911">
+    <row r="911" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C911" s="6"/>
       <c r="E911" s="6"/>
       <c r="F911" s="6"/>
     </row>
-    <row r="912">
+    <row r="912" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C912" s="6"/>
       <c r="E912" s="6"/>
       <c r="F912" s="6"/>
     </row>
-    <row r="913">
+    <row r="913" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C913" s="6"/>
       <c r="E913" s="6"/>
       <c r="F913" s="6"/>
     </row>
-    <row r="914">
+    <row r="914" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C914" s="6"/>
       <c r="E914" s="6"/>
       <c r="F914" s="6"/>
     </row>
-    <row r="915">
+    <row r="915" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C915" s="6"/>
       <c r="E915" s="6"/>
       <c r="F915" s="6"/>
     </row>
-    <row r="916">
+    <row r="916" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C916" s="6"/>
       <c r="E916" s="6"/>
       <c r="F916" s="6"/>
     </row>
-    <row r="917">
+    <row r="917" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C917" s="6"/>
       <c r="E917" s="6"/>
       <c r="F917" s="6"/>
     </row>
-    <row r="918">
+    <row r="918" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C918" s="6"/>
       <c r="E918" s="6"/>
       <c r="F918" s="6"/>
     </row>
-    <row r="919">
+    <row r="919" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C919" s="6"/>
       <c r="E919" s="6"/>
       <c r="F919" s="6"/>
     </row>
-    <row r="920">
+    <row r="920" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C920" s="6"/>
       <c r="E920" s="6"/>
       <c r="F920" s="6"/>
     </row>
-    <row r="921">
+    <row r="921" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C921" s="6"/>
       <c r="E921" s="6"/>
       <c r="F921" s="6"/>
     </row>
-    <row r="922">
+    <row r="922" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C922" s="6"/>
       <c r="E922" s="6"/>
       <c r="F922" s="6"/>
     </row>
-    <row r="923">
+    <row r="923" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C923" s="6"/>
       <c r="E923" s="6"/>
       <c r="F923" s="6"/>
     </row>
-    <row r="924">
+    <row r="924" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C924" s="6"/>
       <c r="E924" s="6"/>
       <c r="F924" s="6"/>
     </row>
-    <row r="925">
+    <row r="925" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C925" s="6"/>
       <c r="E925" s="6"/>
       <c r="F925" s="6"/>
     </row>
-    <row r="926">
+    <row r="926" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C926" s="6"/>
       <c r="E926" s="6"/>
       <c r="F926" s="6"/>
     </row>
-    <row r="927">
+    <row r="927" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C927" s="6"/>
       <c r="E927" s="6"/>
       <c r="F927" s="6"/>
     </row>
-    <row r="928">
+    <row r="928" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C928" s="6"/>
       <c r="E928" s="6"/>
       <c r="F928" s="6"/>
     </row>
-    <row r="929">
+    <row r="929" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C929" s="6"/>
       <c r="E929" s="6"/>
       <c r="F929" s="6"/>
     </row>
-    <row r="930">
+    <row r="930" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C930" s="6"/>
       <c r="E930" s="6"/>
       <c r="F930" s="6"/>
     </row>
-    <row r="931">
+    <row r="931" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C931" s="6"/>
       <c r="E931" s="6"/>
       <c r="F931" s="6"/>
     </row>
-    <row r="932">
+    <row r="932" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C932" s="6"/>
       <c r="E932" s="6"/>
       <c r="F932" s="6"/>
     </row>
-    <row r="933">
+    <row r="933" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C933" s="6"/>
       <c r="E933" s="6"/>
       <c r="F933" s="6"/>
     </row>
-    <row r="934">
+    <row r="934" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C934" s="6"/>
       <c r="E934" s="6"/>
       <c r="F934" s="6"/>
     </row>
-    <row r="935">
+    <row r="935" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C935" s="6"/>
       <c r="E935" s="6"/>
       <c r="F935" s="6"/>
     </row>
-    <row r="936">
+    <row r="936" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C936" s="6"/>
       <c r="E936" s="6"/>
       <c r="F936" s="6"/>
     </row>
-    <row r="937">
+    <row r="937" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C937" s="6"/>
       <c r="E937" s="6"/>
       <c r="F937" s="6"/>
     </row>
-    <row r="938">
+    <row r="938" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C938" s="6"/>
       <c r="E938" s="6"/>
       <c r="F938" s="6"/>
     </row>
-    <row r="939">
+    <row r="939" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C939" s="6"/>
       <c r="E939" s="6"/>
       <c r="F939" s="6"/>
     </row>
-    <row r="940">
+    <row r="940" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C940" s="6"/>
       <c r="E940" s="6"/>
       <c r="F940" s="6"/>
     </row>
-    <row r="941">
+    <row r="941" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C941" s="6"/>
       <c r="E941" s="6"/>
       <c r="F941" s="6"/>
     </row>
-    <row r="942">
+    <row r="942" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C942" s="6"/>
       <c r="E942" s="6"/>
       <c r="F942" s="6"/>
     </row>
-    <row r="943">
+    <row r="943" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C943" s="6"/>
       <c r="E943" s="6"/>
       <c r="F943" s="6"/>
     </row>
-    <row r="944">
+    <row r="944" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C944" s="6"/>
       <c r="E944" s="6"/>
       <c r="F944" s="6"/>
     </row>
-    <row r="945">
+    <row r="945" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C945" s="6"/>
       <c r="E945" s="6"/>
       <c r="F945" s="6"/>
     </row>
-    <row r="946">
+    <row r="946" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C946" s="6"/>
       <c r="E946" s="6"/>
       <c r="F946" s="6"/>
     </row>
-    <row r="947">
+    <row r="947" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C947" s="6"/>
       <c r="E947" s="6"/>
       <c r="F947" s="6"/>
     </row>
-    <row r="948">
+    <row r="948" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C948" s="6"/>
       <c r="E948" s="6"/>
       <c r="F948" s="6"/>
     </row>
-    <row r="949">
+    <row r="949" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C949" s="6"/>
       <c r="E949" s="6"/>
       <c r="F949" s="6"/>
     </row>
-    <row r="950">
+    <row r="950" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C950" s="6"/>
       <c r="E950" s="6"/>
       <c r="F950" s="6"/>
     </row>
-    <row r="951">
+    <row r="951" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C951" s="6"/>
       <c r="E951" s="6"/>
       <c r="F951" s="6"/>
     </row>
-    <row r="952">
+    <row r="952" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C952" s="6"/>
       <c r="E952" s="6"/>
       <c r="F952" s="6"/>
     </row>
-    <row r="953">
+    <row r="953" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C953" s="6"/>
       <c r="E953" s="6"/>
       <c r="F953" s="6"/>
     </row>
-    <row r="954">
+    <row r="954" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C954" s="6"/>
       <c r="E954" s="6"/>
       <c r="F954" s="6"/>
     </row>
-    <row r="955">
+    <row r="955" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C955" s="6"/>
       <c r="E955" s="6"/>
       <c r="F955" s="6"/>
     </row>
-    <row r="956">
+    <row r="956" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C956" s="6"/>
       <c r="E956" s="6"/>
       <c r="F956" s="6"/>
     </row>
-    <row r="957">
+    <row r="957" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C957" s="6"/>
       <c r="E957" s="6"/>
       <c r="F957" s="6"/>
     </row>
-    <row r="958">
+    <row r="958" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C958" s="6"/>
       <c r="E958" s="6"/>
       <c r="F958" s="6"/>
     </row>
-    <row r="959">
+    <row r="959" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C959" s="6"/>
       <c r="E959" s="6"/>
       <c r="F959" s="6"/>
     </row>
-    <row r="960">
+    <row r="960" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C960" s="6"/>
       <c r="E960" s="6"/>
       <c r="F960" s="6"/>
     </row>
-    <row r="961">
+    <row r="961" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C961" s="6"/>
       <c r="E961" s="6"/>
       <c r="F961" s="6"/>
     </row>
-    <row r="962">
+    <row r="962" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C962" s="6"/>
       <c r="E962" s="6"/>
       <c r="F962" s="6"/>
     </row>
-    <row r="963">
+    <row r="963" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C963" s="6"/>
       <c r="E963" s="6"/>
       <c r="F963" s="6"/>
     </row>
-    <row r="964">
+    <row r="964" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C964" s="6"/>
       <c r="E964" s="6"/>
       <c r="F964" s="6"/>
     </row>
-    <row r="965">
+    <row r="965" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C965" s="6"/>
       <c r="E965" s="6"/>
       <c r="F965" s="6"/>
     </row>
-    <row r="966">
+    <row r="966" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C966" s="6"/>
       <c r="E966" s="6"/>
       <c r="F966" s="6"/>
     </row>
-    <row r="967">
+    <row r="967" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C967" s="6"/>
       <c r="E967" s="6"/>
       <c r="F967" s="6"/>
     </row>
-    <row r="968">
+    <row r="968" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C968" s="6"/>
       <c r="E968" s="6"/>
       <c r="F968" s="6"/>
     </row>
-    <row r="969">
+    <row r="969" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C969" s="6"/>
       <c r="E969" s="6"/>
       <c r="F969" s="6"/>
     </row>
-    <row r="970">
+    <row r="970" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C970" s="6"/>
       <c r="E970" s="6"/>
       <c r="F970" s="6"/>
     </row>
-    <row r="971">
+    <row r="971" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C971" s="6"/>
       <c r="E971" s="6"/>
       <c r="F971" s="6"/>
     </row>
-    <row r="972">
+    <row r="972" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C972" s="6"/>
       <c r="E972" s="6"/>
       <c r="F972" s="6"/>
     </row>
-    <row r="973">
+    <row r="973" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C973" s="6"/>
       <c r="E973" s="6"/>
       <c r="F973" s="6"/>
     </row>
-    <row r="974">
+    <row r="974" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C974" s="6"/>
       <c r="E974" s="6"/>
       <c r="F974" s="6"/>
     </row>
-    <row r="975">
+    <row r="975" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C975" s="6"/>
       <c r="E975" s="6"/>
       <c r="F975" s="6"/>
     </row>
-    <row r="976">
+    <row r="976" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C976" s="6"/>
       <c r="E976" s="6"/>
       <c r="F976" s="6"/>
     </row>
-    <row r="977">
+    <row r="977" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C977" s="6"/>
       <c r="E977" s="6"/>
       <c r="F977" s="6"/>
     </row>
-    <row r="978">
+    <row r="978" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C978" s="6"/>
       <c r="E978" s="6"/>
       <c r="F978" s="6"/>
     </row>
-    <row r="979">
+    <row r="979" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C979" s="6"/>
       <c r="E979" s="6"/>
       <c r="F979" s="6"/>
     </row>
-    <row r="980">
+    <row r="980" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C980" s="6"/>
       <c r="E980" s="6"/>
       <c r="F980" s="6"/>
     </row>
-    <row r="981">
+    <row r="981" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C981" s="6"/>
       <c r="E981" s="6"/>
       <c r="F981" s="6"/>
     </row>
-    <row r="982">
+    <row r="982" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C982" s="6"/>
       <c r="E982" s="6"/>
       <c r="F982" s="6"/>
     </row>
-    <row r="983">
+    <row r="983" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C983" s="6"/>
       <c r="E983" s="6"/>
       <c r="F983" s="6"/>
     </row>
-    <row r="984">
+    <row r="984" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C984" s="6"/>
       <c r="E984" s="6"/>
       <c r="F984" s="6"/>
     </row>
-    <row r="985">
+    <row r="985" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C985" s="6"/>
       <c r="E985" s="6"/>
       <c r="F985" s="6"/>
     </row>
-    <row r="986">
+    <row r="986" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C986" s="6"/>
       <c r="E986" s="6"/>
       <c r="F986" s="6"/>
     </row>
-    <row r="987">
+    <row r="987" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C987" s="6"/>
       <c r="E987" s="6"/>
       <c r="F987" s="6"/>
     </row>
-    <row r="988">
+    <row r="988" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C988" s="6"/>
       <c r="E988" s="6"/>
       <c r="F988" s="6"/>
     </row>
-    <row r="989">
+    <row r="989" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C989" s="6"/>
       <c r="E989" s="6"/>
       <c r="F989" s="6"/>
     </row>
-    <row r="990">
+    <row r="990" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C990" s="6"/>
       <c r="E990" s="6"/>
       <c r="F990" s="6"/>
     </row>
-    <row r="991">
+    <row r="991" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C991" s="6"/>
       <c r="E991" s="6"/>
       <c r="F991" s="6"/>
     </row>
-    <row r="992">
+    <row r="992" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C992" s="6"/>
       <c r="E992" s="6"/>
       <c r="F992" s="6"/>
     </row>
-    <row r="993">
+    <row r="993" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C993" s="6"/>
       <c r="E993" s="6"/>
       <c r="F993" s="6"/>
     </row>
-    <row r="994">
+    <row r="994" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C994" s="6"/>
       <c r="E994" s="6"/>
       <c r="F994" s="6"/>
     </row>
-    <row r="995">
+    <row r="995" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C995" s="6"/>
       <c r="E995" s="6"/>
       <c r="F995" s="6"/>
     </row>
-    <row r="996">
+    <row r="996" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C996" s="6"/>
       <c r="E996" s="6"/>
       <c r="F996" s="6"/>
     </row>
-    <row r="997">
+    <row r="997" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C997" s="6"/>
       <c r="E997" s="6"/>
       <c r="F997" s="6"/>
     </row>
-    <row r="998">
+    <row r="998" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C998" s="6"/>
       <c r="E998" s="6"/>
       <c r="F998" s="6"/>
     </row>
-    <row r="999">
+    <row r="999" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C999" s="6"/>
       <c r="E999" s="6"/>
       <c r="F999" s="6"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C1000" s="6"/>
       <c r="E1000" s="6"/>
       <c r="F1000" s="6"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1001" s="22"/>
       <c r="F1001" s="22"/>
     </row>
-    <row r="1002">
+    <row r="1002" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1002" s="22"/>
       <c r="F1002" s="22"/>
     </row>
-    <row r="1003">
+    <row r="1003" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1003" s="22"/>
       <c r="F1003" s="22"/>
     </row>
-    <row r="1004">
+    <row r="1004" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1004" s="22"/>
       <c r="F1004" s="22"/>
     </row>
-    <row r="1005">
+    <row r="1005" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1005" s="22"/>
       <c r="F1005" s="22"/>
     </row>
-    <row r="1006">
+    <row r="1006" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1006" s="22"/>
       <c r="F1006" s="22"/>
     </row>
-    <row r="1007">
+    <row r="1007" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1007" s="22"/>
       <c r="F1007" s="22"/>
     </row>
-    <row r="1008">
+    <row r="1008" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1008" s="22"/>
       <c r="F1008" s="22"/>
     </row>
-    <row r="1009">
+    <row r="1009" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1009" s="22"/>
       <c r="F1009" s="22"/>
     </row>
-    <row r="1010">
+    <row r="1010" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1010" s="22"/>
       <c r="F1010" s="22"/>
     </row>
-    <row r="1011">
+    <row r="1011" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1011" s="22"/>
       <c r="F1011" s="22"/>
     </row>
-    <row r="1012">
+    <row r="1012" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1012" s="22"/>
       <c r="F1012" s="22"/>
     </row>
-    <row r="1013">
+    <row r="1013" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1013" s="22"/>
       <c r="F1013" s="22"/>
     </row>
-    <row r="1014">
+    <row r="1014" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1014" s="22"/>
       <c r="F1014" s="22"/>
     </row>
-    <row r="1015">
+    <row r="1015" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1015" s="22"/>
       <c r="F1015" s="22"/>
     </row>
-    <row r="1016">
+    <row r="1016" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1016" s="22"/>
       <c r="F1016" s="22"/>
     </row>
-    <row r="1017">
+    <row r="1017" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1017" s="22"/>
       <c r="F1017" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F1017">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Developed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1017">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E1017">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Tested"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E1017">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E1017">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Issue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="F2:F1017">
       <formula1>"Developed,Pending"</formula1>
     </dataValidation>
@@ -6417,8 +6622,9 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B4"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/tests/TestCasesPlan.xlsx
+++ b/tests/TestCasesPlan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="120">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -57,39 +57,9 @@
     <t>LoginExpo</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Test Different combination of Username </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Eg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>: Empty username,Empty password, Valid Username, Invalid Username,Invalid Password,valid password</t>
-    </r>
-  </si>
-  <si>
     <t>ExpoSKUAddNew</t>
   </si>
   <si>
-    <t>Test SKU management in Expoloader.  AddNew</t>
-  </si>
-  <si>
     <t>Amna</t>
   </si>
   <si>
@@ -108,30 +78,18 @@
     <t>ExpoSKUDelete</t>
   </si>
   <si>
-    <t>Test SKU management in Expoloader  delete.</t>
-  </si>
-  <si>
     <t>Zabith</t>
   </si>
   <si>
     <t>ExpoSKUSearch</t>
   </si>
   <si>
-    <t xml:space="preserve">Test SKU management in Expoloader  Search </t>
-  </si>
-  <si>
     <t>ExpoSKUDeleteAllRecords</t>
   </si>
   <si>
-    <t>Test SKU management in Expoloader  DeleteAllRecords</t>
-  </si>
-  <si>
     <t>ExpoSKUDeleteMultipleRecords</t>
   </si>
   <si>
-    <t xml:space="preserve">Test SKU management to Delete more than one Record in Expoloader  </t>
-  </si>
-  <si>
     <t>ExpoContainerAddNew</t>
   </si>
   <si>
@@ -159,30 +117,18 @@
     <t>ExpoContainerDelete</t>
   </si>
   <si>
-    <t>Test Container management in Expoloader  delete.</t>
-  </si>
-  <si>
     <t>Tisun</t>
   </si>
   <si>
     <t>ExpoContainerSearch</t>
   </si>
   <si>
-    <t xml:space="preserve">Test Containermanagement in Expoloader  Search </t>
-  </si>
-  <si>
     <t>ExpoContainerDeleteAllRecords</t>
   </si>
   <si>
-    <t>Test Containermanagement in Expoloader  DeleteAllRecords</t>
-  </si>
-  <si>
     <t>ExpoPalleteAddNew</t>
   </si>
   <si>
-    <t>Test Pallete management in Expoloader.  AddNew</t>
-  </si>
-  <si>
     <t>ExpoPalleteExportExcel</t>
   </si>
   <si>
@@ -198,30 +144,15 @@
     <t>ExpoPalleteDelete</t>
   </si>
   <si>
-    <t>Test Palletemanagement in Expoloader  delete.</t>
-  </si>
-  <si>
     <t>ExpoPalleteSearch</t>
   </si>
   <si>
-    <t xml:space="preserve">Test Pallete management in Expoloader  Search </t>
-  </si>
-  <si>
     <t>ExpoPalleteDeleteAllRecords</t>
   </si>
   <si>
-    <t>Test Palletemanagement in Expoloader  DeleteAllRecords</t>
-  </si>
-  <si>
     <t>FloorLoading</t>
   </si>
   <si>
-    <t>Test basic container loading  ex-Add LoadingType,Container,Height,SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PalletLoading        </t>
-  </si>
-  <si>
     <t>Test basic container loading ex-Add LoadingType,Container,Height,SKU</t>
   </si>
   <si>
@@ -252,81 +183,15 @@
     <t>Check signup Emial verification</t>
   </si>
   <si>
-    <t>Notification</t>
-  </si>
-  <si>
     <t>Test notifications in expoloader website</t>
   </si>
   <si>
-    <t>ForgetPassword</t>
-  </si>
-  <si>
-    <t>Test signin forget password</t>
-  </si>
-  <si>
-    <t>UserProfile</t>
-  </si>
-  <si>
-    <t>Test UserProfile features</t>
-  </si>
-  <si>
-    <t>CreateUpdateSaveFloorLoading</t>
-  </si>
-  <si>
-    <t>test the save load function in floor loading</t>
-  </si>
-  <si>
-    <t>CreateUpdateSavePalletLoading</t>
-  </si>
-  <si>
-    <t>test the save load function in the pallet loading</t>
-  </si>
-  <si>
-    <t>CreateUpdateSavePalletLoadingAndFloorLoading</t>
-  </si>
-  <si>
-    <t>test the save load function in the pallet and floor loading</t>
-  </si>
-  <si>
-    <t>SelectProject</t>
-  </si>
-  <si>
-    <t>test select project function</t>
-  </si>
-  <si>
-    <t>suresh</t>
-  </si>
-  <si>
-    <t>ProjectAdd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test proect Management add </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suresh </t>
-  </si>
-  <si>
-    <t>ProjectDelete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test project management delete </t>
-  </si>
-  <si>
     <t>sarfan</t>
   </si>
   <si>
-    <t>ProjectDeleteAllRecords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test project management delete all </t>
-  </si>
-  <si>
     <t>SearchProject</t>
   </si>
   <si>
-    <t xml:space="preserve">test project  management search </t>
-  </si>
-  <si>
     <t>ProjectDetailsAddUser</t>
   </si>
   <si>
@@ -348,27 +213,15 @@
     <t>test project details Delete user</t>
   </si>
   <si>
-    <t>ConsegmentSearch</t>
-  </si>
-  <si>
     <t>test consegment management's search function</t>
   </si>
   <si>
-    <t>ConsegmentEdit</t>
-  </si>
-  <si>
     <t>test consegment management's edit function</t>
   </si>
   <si>
-    <t>ConsegmentDelete</t>
-  </si>
-  <si>
     <t>test consegment management's delete function</t>
   </si>
   <si>
-    <t>ConsegmentDeleteAllRecords</t>
-  </si>
-  <si>
     <t>test consegment management's DeleteAll function</t>
   </si>
   <si>
@@ -378,15 +231,6 @@
     <t>Developed</t>
   </si>
   <si>
-    <t>ExpoFloorAndPalletLoading</t>
-  </si>
-  <si>
-    <t>Test expoloader floor and pallet loading in the optimization</t>
-  </si>
-  <si>
-    <t>thisun</t>
-  </si>
-  <si>
     <t>PersonalInfo</t>
   </si>
   <si>
@@ -403,6 +247,138 @@
   </si>
   <si>
     <t>test delete account</t>
+  </si>
+  <si>
+    <t>Test SKU management in Expoloader. AddNew</t>
+  </si>
+  <si>
+    <t>Test SKU management in Expoloader delete.</t>
+  </si>
+  <si>
+    <t>Test SKU management in Expoloader Search</t>
+  </si>
+  <si>
+    <t>Test SKU management in Expoloader DeleteAllRecords</t>
+  </si>
+  <si>
+    <t>Test SKU management to Delete more than one Record in Expoloader</t>
+  </si>
+  <si>
+    <t>Test Container management in Expoloader delete.</t>
+  </si>
+  <si>
+    <t>Test Containermanagement in Expoloader Search</t>
+  </si>
+  <si>
+    <t>Test Containermanagement in Expoloader DeleteAllRecords</t>
+  </si>
+  <si>
+    <t>Test Pallete management in Expoloader. AddNew</t>
+  </si>
+  <si>
+    <t>Test Palletemanagement in Expoloader delete.</t>
+  </si>
+  <si>
+    <t>Test Pallete management in Expoloader Search</t>
+  </si>
+  <si>
+    <t>Test Palletemanagement in Expoloader DeleteAllRecords</t>
+  </si>
+  <si>
+    <t>PalletLoading</t>
+  </si>
+  <si>
+    <t>NotificationContainerAddNew</t>
+  </si>
+  <si>
+    <t>Thilina/ayesh/thisun/suresh</t>
+  </si>
+  <si>
+    <t>NotificationContainerDelete</t>
+  </si>
+  <si>
+    <t>NotificationContainerDeleteAllRecord</t>
+  </si>
+  <si>
+    <t>NotificationContainerEdit</t>
+  </si>
+  <si>
+    <t>NotificationPalletAddNew</t>
+  </si>
+  <si>
+    <t>NotificationPalletDelete</t>
+  </si>
+  <si>
+    <t>NotificationPalletDeleteAllRecord</t>
+  </si>
+  <si>
+    <t>NotificationPalletEdit</t>
+  </si>
+  <si>
+    <t>NotificationSKUAddNew</t>
+  </si>
+  <si>
+    <t>NotificationSKUDelete</t>
+  </si>
+  <si>
+    <t>NotificationSKUDeleteAllRecord</t>
+  </si>
+  <si>
+    <t>NotificationSKUEdit</t>
+  </si>
+  <si>
+    <t>NotificationProjectsAddNew</t>
+  </si>
+  <si>
+    <t>NotificationProjectsDelete</t>
+  </si>
+  <si>
+    <t>NotificationProjectsDeleteAllRecord</t>
+  </si>
+  <si>
+    <t>NotificationProjectsEdit</t>
+  </si>
+  <si>
+    <t>NotificationConsignmentsAddNew</t>
+  </si>
+  <si>
+    <t>NotificationConsignmentsDelete</t>
+  </si>
+  <si>
+    <t>NotificationConsignmentsDeleteAllRecords</t>
+  </si>
+  <si>
+    <t>NotificationConsignmentsDeleteEdit</t>
+  </si>
+  <si>
+    <t>NotificationPersonalInfo</t>
+  </si>
+  <si>
+    <t>NotificationDeleteAccount</t>
+  </si>
+  <si>
+    <t>Test Different combination of Username Eg: Empty username,Empty password, Valid Username, Invalid Username,Invalid Password,valid password</t>
+  </si>
+  <si>
+    <t>FloorAndPalletLoading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test floor and pallet loading in the optimization </t>
+  </si>
+  <si>
+    <t>test project management search</t>
+  </si>
+  <si>
+    <t>ConsignmentSearch</t>
+  </si>
+  <si>
+    <t>ConsignmentEdit</t>
+  </si>
+  <si>
+    <t>ConsignmentDelete</t>
+  </si>
+  <si>
+    <t>ConsignmentDeleteAllRecords</t>
   </si>
 </sst>
 </file>
@@ -468,6 +444,8 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -496,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -532,27 +510,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -574,6 +543,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFCC0000"/>
           <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
         </patternFill>
       </fill>
     </dxf>
@@ -823,10 +800,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1017"/>
+  <dimension ref="A1:AA1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -858,7 +835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -867,16 +844,16 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -889,15 +866,15 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="13" t="s">
@@ -905,341 +882,341 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="13"/>
       <c r="E11" s="6"/>
       <c r="F11" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
@@ -1264,19 +1241,19 @@
       <c r="AA25" s="20"/>
     </row>
     <row r="26" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>61</v>
+      <c r="A26" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="6"/>
+      <c r="D26" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
@@ -1302,18 +1279,18 @@
     </row>
     <row r="27" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="13" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -1339,18 +1316,18 @@
     </row>
     <row r="28" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="13" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
@@ -1376,18 +1353,18 @@
     </row>
     <row r="29" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>66</v>
+        <v>49</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="15" t="s">
-        <v>63</v>
+      <c r="D29" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -1412,307 +1389,328 @@
       <c r="AA29" s="20"/>
     </row>
     <row r="30" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>112</v>
+      <c r="A30" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="15" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="10" t="s">
-        <v>110</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
     </row>
     <row r="31" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="15" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="15" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="15" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="15" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="15" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="15" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="15" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>85</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="C39" s="10"/>
-      <c r="D39" s="21" t="s">
-        <v>86</v>
+      <c r="D39" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="21" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="21" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="21" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="21" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="21" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="21" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1720,124 +1718,256 @@
         <v>107</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" t="s">
-        <v>15</v>
+      <c r="A50" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="10" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
       <c r="C53" s="6"/>
+      <c r="D53" t="s">
+        <v>90</v>
+      </c>
       <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="F53" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
       <c r="C54" s="6"/>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
       <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="F54" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
       <c r="C55" s="6"/>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
       <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="F55" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
       <c r="C56" s="6"/>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
       <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="F56" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
       <c r="C57" s="6"/>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
       <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="F57" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
       <c r="C58" s="6"/>
+      <c r="D58" t="s">
+        <v>48</v>
+      </c>
       <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="F58" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
       <c r="C59" s="6"/>
+      <c r="D59" t="s">
+        <v>48</v>
+      </c>
       <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="F59" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
       <c r="C60" s="6"/>
+      <c r="D60" t="s">
+        <v>59</v>
+      </c>
       <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="F60" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
       <c r="C61" s="6"/>
+      <c r="D61" t="s">
+        <v>59</v>
+      </c>
       <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="F61" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
       <c r="C62" s="6"/>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
       <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="F62" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
       <c r="C63" s="6"/>
+      <c r="D63" t="s">
+        <v>55</v>
+      </c>
       <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
+      <c r="F63" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
       <c r="C64" s="6"/>
+      <c r="D64" t="s">
+        <v>55</v>
+      </c>
       <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
+      <c r="F64" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="65" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C65" s="6"/>
@@ -6520,8 +6650,9 @@
       <c r="F1000" s="6"/>
     </row>
     <row r="1001" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1001" s="22"/>
-      <c r="F1001" s="22"/>
+      <c r="C1001" s="6"/>
+      <c r="E1001" s="6"/>
+      <c r="F1001" s="6"/>
     </row>
     <row r="1002" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1002" s="22"/>
@@ -6587,44 +6718,40 @@
       <c r="E1017" s="22"/>
       <c r="F1017" s="22"/>
     </row>
+    <row r="1018" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1018" s="22"/>
+      <c r="F1018" s="22"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F1017">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F1018">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Developed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F1017">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+  <conditionalFormatting sqref="E2:F1018">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E1017">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+  <conditionalFormatting sqref="E2:E1018">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Tested"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E1017">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E1017">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="E2:E1018">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Issue"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1017">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1018">
       <formula1>"Developed,Pending"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E1017">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E1018">
       <formula1>"Tested,Pending,Issue"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/TestCasesPlan.xlsx
+++ b/tests/TestCasesPlan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="121">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>ConsignmentDeleteAllRecords</t>
+  </si>
+  <si>
+    <t>Thisun</t>
   </si>
 </sst>
 </file>
@@ -521,44 +524,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFCC0000"/>
           <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -802,8 +773,8 @@
   </sheetPr>
   <dimension ref="A1:AA1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1818,7 +1789,7 @@
       </c>
       <c r="C55" s="6"/>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="10" t="s">
@@ -1834,7 +1805,7 @@
       </c>
       <c r="C56" s="6"/>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="10" t="s">
@@ -1850,7 +1821,7 @@
       </c>
       <c r="C57" s="6"/>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="10" t="s">
@@ -6724,22 +6695,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F1018">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Developed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F1018">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E1018">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Tested"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E1018">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Issue"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/TestCasesPlan.xlsx
+++ b/tests/TestCasesPlan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="125">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -87,9 +87,6 @@
     <t>ExpoSKUDeleteAllRecords</t>
   </si>
   <si>
-    <t>ExpoSKUDeleteMultipleRecords</t>
-  </si>
-  <si>
     <t>ExpoContainerAddNew</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
     <t>Test SKU management in Expoloader DeleteAllRecords</t>
   </si>
   <si>
-    <t>Test SKU management to Delete more than one Record in Expoloader</t>
-  </si>
-  <si>
     <t>Test Container management in Expoloader delete.</t>
   </si>
   <si>
@@ -382,6 +376,24 @@
   </si>
   <si>
     <t>Thisun</t>
+  </si>
+  <si>
+    <t>ExpoSKUImportExcelData</t>
+  </si>
+  <si>
+    <t>ExpoContainerImportExcelData</t>
+  </si>
+  <si>
+    <t>container import excel data</t>
+  </si>
+  <si>
+    <t>SKU import excel data</t>
+  </si>
+  <si>
+    <t>ExpoPalletImportExcelData</t>
+  </si>
+  <si>
+    <t>pallet import excel data</t>
   </si>
 </sst>
 </file>
@@ -771,10 +783,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1018"/>
+  <dimension ref="A1:AA1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -818,10 +830,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
@@ -837,7 +849,7 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
@@ -845,7 +857,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="13" t="s">
@@ -853,7 +865,7 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -861,7 +873,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="15" t="s">
@@ -869,7 +881,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -885,7 +897,7 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -901,7 +913,7 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -909,15 +921,17 @@
         <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F8" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -925,15 +939,17 @@
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F9" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -941,149 +957,153 @@
         <v>21</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F10" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>35</v>
+      <c r="A18" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="16" t="s">
@@ -1091,15 +1111,15 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>38</v>
+      <c r="A20" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="16" t="s">
@@ -1107,15 +1127,15 @@
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="16" t="s">
@@ -1123,15 +1143,15 @@
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="16" t="s">
@@ -1139,15 +1159,15 @@
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>42</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="16" t="s">
@@ -1155,113 +1175,71 @@
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="13" t="s">
-        <v>13</v>
+      <c r="D24" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>44</v>
+        <v>123</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-    </row>
-    <row r="26" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-    </row>
-    <row r="27" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>46</v>
+        <v>86</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="13" t="s">
-        <v>19</v>
+      <c r="D27" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -1286,19 +1264,19 @@
       <c r="AA27" s="20"/>
     </row>
     <row r="28" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="6"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
@@ -1324,18 +1302,18 @@
     </row>
     <row r="29" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="13" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -1361,18 +1339,18 @@
     </row>
     <row r="30" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="15" t="s">
-        <v>48</v>
+      <c r="D30" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
@@ -1397,625 +1375,689 @@
       <c r="AA30" s="20"/>
     </row>
     <row r="31" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>53</v>
+      <c r="A31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="15" t="s">
-        <v>19</v>
+      <c r="D31" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="10" t="s">
-        <v>69</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
     </row>
     <row r="32" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>54</v>
+      <c r="A32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="15" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="10" t="s">
-        <v>69</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="15" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>54</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="C40" s="10"/>
-      <c r="D40" s="21" t="s">
-        <v>90</v>
+      <c r="D40" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>54</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="C41" s="10"/>
-      <c r="D41" s="21" t="s">
-        <v>90</v>
+      <c r="D41" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" t="s">
-        <v>90</v>
+      <c r="A51" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" t="s">
-        <v>90</v>
+      <c r="A52" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
       <c r="C65" s="6"/>
+      <c r="D65" t="s">
+        <v>54</v>
+      </c>
       <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F65" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
       <c r="C66" s="6"/>
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
       <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F66" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -6626,12 +6668,14 @@
       <c r="F1001" s="6"/>
     </row>
     <row r="1002" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1002" s="22"/>
-      <c r="F1002" s="22"/>
+      <c r="C1002" s="6"/>
+      <c r="E1002" s="6"/>
+      <c r="F1002" s="6"/>
     </row>
     <row r="1003" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1003" s="22"/>
-      <c r="F1003" s="22"/>
+      <c r="C1003" s="6"/>
+      <c r="E1003" s="6"/>
+      <c r="F1003" s="6"/>
     </row>
     <row r="1004" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1004" s="22"/>
@@ -6693,32 +6737,40 @@
       <c r="E1018" s="22"/>
       <c r="F1018" s="22"/>
     </row>
+    <row r="1019" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1019" s="22"/>
+      <c r="F1019" s="22"/>
+    </row>
+    <row r="1020" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1020" s="22"/>
+      <c r="F1020" s="22"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F1018">
+  <conditionalFormatting sqref="F2:F1020">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Developed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F1018">
+  <conditionalFormatting sqref="E2:F1020">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E1018">
+  <conditionalFormatting sqref="E2:E1020">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Tested"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E1018">
+  <conditionalFormatting sqref="E2:E1020">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Issue"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1018">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1020">
       <formula1>"Developed,Pending"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E1018">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E1020">
       <formula1>"Tested,Pending,Issue"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/TestCasesPlan.xlsx
+++ b/tests/TestCasesPlan.xlsx
@@ -390,10 +390,10 @@
     <t>SKU import excel data</t>
   </si>
   <si>
-    <t>ExpoPalletImportExcelData</t>
-  </si>
-  <si>
-    <t>pallet import excel data</t>
+    <t>ExpoPalleteImportExcel</t>
+  </si>
+  <si>
+    <t>container export excel data</t>
   </si>
 </sst>
 </file>
@@ -785,8 +785,8 @@
   </sheetPr>
   <dimension ref="A1:AA1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="20" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>36</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="25" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>124</v>

--- a/tests/TestCasesPlan.xlsx
+++ b/tests/TestCasesPlan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="133">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -39,123 +39,54 @@
     <t>Developers Status</t>
   </si>
   <si>
-    <t>NavExpo</t>
-  </si>
-  <si>
     <t>Navigate the URL</t>
   </si>
   <si>
-    <t>SignupExpo</t>
-  </si>
-  <si>
     <t>Test Different combination of Username value. Eg: Empty username,Empty password,Empty Email, Valid Username, Invalid Username,Invalid Email,invalid password, valid password, Empty Check Box</t>
   </si>
   <si>
     <t>Suresh</t>
   </si>
   <si>
-    <t>LoginExpo</t>
-  </si>
-  <si>
-    <t>ExpoSKUAddNew</t>
-  </si>
-  <si>
     <t>Amna</t>
   </si>
   <si>
-    <t>ExpoSKUIExportExcel</t>
-  </si>
-  <si>
     <t>Test SKU management in Expoloader ImportExel</t>
   </si>
   <si>
-    <t>ExpoSKUEdit</t>
-  </si>
-  <si>
     <t>Test SKU management in Expoloader edit</t>
   </si>
   <si>
-    <t>ExpoSKUDelete</t>
-  </si>
-  <si>
     <t>Zabith</t>
   </si>
   <si>
-    <t>ExpoSKUSearch</t>
-  </si>
-  <si>
-    <t>ExpoSKUDeleteAllRecords</t>
-  </si>
-  <si>
-    <t>ExpoContainerAddNew</t>
-  </si>
-  <si>
     <t>Test Container management in Expoloader AddNew</t>
   </si>
   <si>
     <t>Thilina/thisun</t>
   </si>
   <si>
-    <t>ExpoContainerExportExcel</t>
-  </si>
-  <si>
     <t>Test Container management in Expoloader ImportExel</t>
   </si>
   <si>
     <t>Thilina</t>
   </si>
   <si>
-    <t>ExpoContainerEdit</t>
-  </si>
-  <si>
     <t>Test Container management in Expoloader edit</t>
   </si>
   <si>
-    <t>ExpoContainerDelete</t>
-  </si>
-  <si>
     <t>Tisun</t>
   </si>
   <si>
-    <t>ExpoContainerSearch</t>
-  </si>
-  <si>
-    <t>ExpoContainerDeleteAllRecords</t>
-  </si>
-  <si>
-    <t>ExpoPalleteAddNew</t>
-  </si>
-  <si>
-    <t>ExpoPalleteExportExcel</t>
-  </si>
-  <si>
     <t>Test Pallete management in Expoloader ImportExel</t>
   </si>
   <si>
-    <t>ExpoPalleteEdit</t>
-  </si>
-  <si>
     <t>Test Palletemanagement in Expoloader edit</t>
   </si>
   <si>
-    <t>ExpoPalleteDelete</t>
-  </si>
-  <si>
-    <t>ExpoPalleteSearch</t>
-  </si>
-  <si>
-    <t>ExpoPalleteDeleteAllRecords</t>
-  </si>
-  <si>
-    <t>FloorLoading</t>
-  </si>
-  <si>
     <t>Test basic container loading ex-Add LoadingType,Container,Height,SKU</t>
   </si>
   <si>
-    <t>MultiSkuFloorLoading</t>
-  </si>
-  <si>
     <t>Test multiple sku</t>
   </si>
   <si>
@@ -168,15 +99,9 @@
     <t>palletNonStackMultiSkuLoad</t>
   </si>
   <si>
-    <t>LogOut</t>
-  </si>
-  <si>
     <t>Logout of the website</t>
   </si>
   <si>
-    <t>Email Verification</t>
-  </si>
-  <si>
     <t>Check signup Emial verification</t>
   </si>
   <si>
@@ -186,27 +111,15 @@
     <t>sarfan</t>
   </si>
   <si>
-    <t>SearchProject</t>
-  </si>
-  <si>
-    <t>ProjectDetailsAddUser</t>
-  </si>
-  <si>
     <t>test project details add user</t>
   </si>
   <si>
     <t>Navindu</t>
   </si>
   <si>
-    <t>ProjectDetailsEdit</t>
-  </si>
-  <si>
     <t>test project details Edit</t>
   </si>
   <si>
-    <t>ProjectDetailsDelete</t>
-  </si>
-  <si>
     <t>test project details Delete user</t>
   </si>
   <si>
@@ -228,21 +141,12 @@
     <t>Developed</t>
   </si>
   <si>
-    <t>PersonalInfo</t>
-  </si>
-  <si>
     <t>test personal Info</t>
   </si>
   <si>
-    <t>ChangePassword</t>
-  </si>
-  <si>
     <t>test change password function</t>
   </si>
   <si>
-    <t>DeleteAccount</t>
-  </si>
-  <si>
     <t>test delete account</t>
   </si>
   <si>
@@ -279,132 +183,259 @@
     <t>Test Palletemanagement in Expoloader DeleteAllRecords</t>
   </si>
   <si>
-    <t>PalletLoading</t>
-  </si>
-  <si>
-    <t>NotificationContainerAddNew</t>
-  </si>
-  <si>
     <t>Thilina/ayesh/thisun/suresh</t>
   </si>
   <si>
-    <t>NotificationContainerDelete</t>
-  </si>
-  <si>
-    <t>NotificationContainerDeleteAllRecord</t>
-  </si>
-  <si>
-    <t>NotificationContainerEdit</t>
-  </si>
-  <si>
-    <t>NotificationPalletAddNew</t>
-  </si>
-  <si>
-    <t>NotificationPalletDelete</t>
-  </si>
-  <si>
-    <t>NotificationPalletDeleteAllRecord</t>
-  </si>
-  <si>
-    <t>NotificationPalletEdit</t>
-  </si>
-  <si>
-    <t>NotificationSKUAddNew</t>
-  </si>
-  <si>
-    <t>NotificationSKUDelete</t>
-  </si>
-  <si>
-    <t>NotificationSKUDeleteAllRecord</t>
-  </si>
-  <si>
-    <t>NotificationSKUEdit</t>
-  </si>
-  <si>
-    <t>NotificationProjectsAddNew</t>
-  </si>
-  <si>
-    <t>NotificationProjectsDelete</t>
-  </si>
-  <si>
-    <t>NotificationProjectsDeleteAllRecord</t>
-  </si>
-  <si>
-    <t>NotificationProjectsEdit</t>
-  </si>
-  <si>
-    <t>NotificationConsignmentsAddNew</t>
-  </si>
-  <si>
-    <t>NotificationConsignmentsDelete</t>
-  </si>
-  <si>
-    <t>NotificationConsignmentsDeleteAllRecords</t>
-  </si>
-  <si>
-    <t>NotificationConsignmentsDeleteEdit</t>
-  </si>
-  <si>
-    <t>NotificationPersonalInfo</t>
-  </si>
-  <si>
-    <t>NotificationDeleteAccount</t>
-  </si>
-  <si>
     <t>Test Different combination of Username Eg: Empty username,Empty password, Valid Username, Invalid Username,Invalid Password,valid password</t>
   </si>
   <si>
-    <t>FloorAndPalletLoading</t>
-  </si>
-  <si>
     <t xml:space="preserve">test floor and pallet loading in the optimization </t>
   </si>
   <si>
     <t>test project management search</t>
   </si>
   <si>
-    <t>ConsignmentSearch</t>
-  </si>
-  <si>
-    <t>ConsignmentEdit</t>
-  </si>
-  <si>
-    <t>ConsignmentDelete</t>
-  </si>
-  <si>
-    <t>ConsignmentDeleteAllRecords</t>
-  </si>
-  <si>
-    <t>Thisun</t>
-  </si>
-  <si>
-    <t>ExpoSKUImportExcelData</t>
-  </si>
-  <si>
-    <t>ExpoContainerImportExcelData</t>
-  </si>
-  <si>
     <t>container import excel data</t>
   </si>
   <si>
     <t>SKU import excel data</t>
   </si>
   <si>
-    <t>ExpoPalleteImportExcel</t>
-  </si>
-  <si>
     <t>container export excel data</t>
+  </si>
+  <si>
+    <t>test project add</t>
+  </si>
+  <si>
+    <t>thisun</t>
+  </si>
+  <si>
+    <t>test project Edit</t>
+  </si>
+  <si>
+    <t>test project Delete</t>
+  </si>
+  <si>
+    <t>test project delete all records</t>
+  </si>
+  <si>
+    <t>expoSKUDeleteAllRecords</t>
+  </si>
+  <si>
+    <t>expoSKUSearch</t>
+  </si>
+  <si>
+    <t>expoSKUDelete</t>
+  </si>
+  <si>
+    <t>expoSKUEdit</t>
+  </si>
+  <si>
+    <t>expoSKUIExportExcel</t>
+  </si>
+  <si>
+    <t>expoSKUAddNew</t>
+  </si>
+  <si>
+    <t>loginExpo</t>
+  </si>
+  <si>
+    <t>expoSKUImportExcelData</t>
+  </si>
+  <si>
+    <t>expoContainerAddNew</t>
+  </si>
+  <si>
+    <t>expoContainerExportExcel</t>
+  </si>
+  <si>
+    <t>expoContainerEdit</t>
+  </si>
+  <si>
+    <t>expoContainerDelete</t>
+  </si>
+  <si>
+    <t>expoContainerSearch</t>
+  </si>
+  <si>
+    <t>expoContainerDeleteAllRecords</t>
+  </si>
+  <si>
+    <t>expoContainerImportExcelData</t>
+  </si>
+  <si>
+    <t>expoPalleteAddNew</t>
+  </si>
+  <si>
+    <t>expoPalleteImportExcel</t>
+  </si>
+  <si>
+    <t>expoPalleteEdit</t>
+  </si>
+  <si>
+    <t>expoPalleteDelete</t>
+  </si>
+  <si>
+    <t>expoPalleteSearch</t>
+  </si>
+  <si>
+    <t>expoPalleteDeleteAllRecords</t>
+  </si>
+  <si>
+    <t>expoPalleteExportExcel</t>
+  </si>
+  <si>
+    <t>floorLoading</t>
+  </si>
+  <si>
+    <t>palletLoading</t>
+  </si>
+  <si>
+    <t>floorAndPalletLoading</t>
+  </si>
+  <si>
+    <t>multiSkuFloorLoading</t>
+  </si>
+  <si>
+    <t>logOut</t>
+  </si>
+  <si>
+    <t>email Verification</t>
+  </si>
+  <si>
+    <t>notificationContainerAddNew</t>
+  </si>
+  <si>
+    <t>notificationContainerDelete</t>
+  </si>
+  <si>
+    <t>notificationContainerDeleteAllRecord</t>
+  </si>
+  <si>
+    <t>notificationContainerEdit</t>
+  </si>
+  <si>
+    <t>notificationPalletAddNew</t>
+  </si>
+  <si>
+    <t>notificationPalletDelete</t>
+  </si>
+  <si>
+    <t>notificationPalletDeleteAllRecord</t>
+  </si>
+  <si>
+    <t>notificationPalletEdit</t>
+  </si>
+  <si>
+    <t>notificationSKUAddNew</t>
+  </si>
+  <si>
+    <t>notificationSKUDelete</t>
+  </si>
+  <si>
+    <t>notificationSKUDeleteAllRecord</t>
+  </si>
+  <si>
+    <t>notificationSKUEdit</t>
+  </si>
+  <si>
+    <t>notificationProjectsAddNew</t>
+  </si>
+  <si>
+    <t>notificationProjectsDelete</t>
+  </si>
+  <si>
+    <t>notificationProjectsDeleteAllRecord</t>
+  </si>
+  <si>
+    <t>notificationProjectsEdit</t>
+  </si>
+  <si>
+    <t>notificationConsignmentsAddNew</t>
+  </si>
+  <si>
+    <t>notificationConsignmentsDelete</t>
+  </si>
+  <si>
+    <t>notificationConsignmentsDeleteAllRecords</t>
+  </si>
+  <si>
+    <t>notificationConsignmentsDeleteEdit</t>
+  </si>
+  <si>
+    <t>notificationPersonalInfo</t>
+  </si>
+  <si>
+    <t>notificationDeleteAccount</t>
+  </si>
+  <si>
+    <t>searchProject</t>
+  </si>
+  <si>
+    <t>projectAdd</t>
+  </si>
+  <si>
+    <t>projectEdit</t>
+  </si>
+  <si>
+    <t>projectDelete</t>
+  </si>
+  <si>
+    <t>projectDeleteAllRecords</t>
+  </si>
+  <si>
+    <t>projectDetailsAddUser</t>
+  </si>
+  <si>
+    <t>projectDetailsEdit</t>
+  </si>
+  <si>
+    <t>projectDetailsDelete</t>
+  </si>
+  <si>
+    <t>consignmentSearch</t>
+  </si>
+  <si>
+    <t>consignmentEdit</t>
+  </si>
+  <si>
+    <t>consignmentDelete</t>
+  </si>
+  <si>
+    <t>consignmentDeleteAllRecords</t>
+  </si>
+  <si>
+    <t>personalInfo</t>
+  </si>
+  <si>
+    <t>changePassword</t>
+  </si>
+  <si>
+    <t>deleteAccount</t>
+  </si>
+  <si>
+    <t>signupExpo</t>
+  </si>
+  <si>
+    <t>navExpoloader</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,6 +493,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -489,54 +534,139 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -783,10 +913,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1020"/>
+  <dimension ref="A1:AA1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -819,1198 +949,1246 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
+      <c r="A3" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
+      <c r="A4" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>12</v>
+      <c r="A5" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="15" t="s">
-        <v>13</v>
+      <c r="D5" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>14</v>
+      <c r="A6" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="15" t="s">
-        <v>13</v>
+      <c r="D6" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>16</v>
+      <c r="A7" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="15" t="s">
-        <v>13</v>
+      <c r="D7" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="B8" s="9" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="15" t="s">
-        <v>19</v>
+      <c r="D8" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="B9" s="9" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="15" t="s">
-        <v>19</v>
+      <c r="D9" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>21</v>
+      <c r="A10" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="15" t="s">
-        <v>19</v>
+      <c r="D10" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>119</v>
+      <c r="A11" s="26" t="s">
+        <v>73</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>22</v>
+      <c r="A12" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>25</v>
+      <c r="A13" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="13" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>28</v>
+      <c r="A14" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="13" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>30</v>
+      <c r="A15" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>32</v>
+      <c r="A16" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="13" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>33</v>
+      <c r="A17" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="13" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>120</v>
+      <c r="A18" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="15" t="s">
-        <v>19</v>
+      <c r="D18" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>34</v>
+      <c r="A19" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="16" t="s">
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="16" t="s">
-        <v>19</v>
+      <c r="D20" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>37</v>
+      <c r="A21" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="6"/>
       <c r="F21" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>39</v>
+      <c r="A22" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="16" t="s">
-        <v>19</v>
+      <c r="D22" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>40</v>
+      <c r="A23" s="26" t="s">
+        <v>85</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="16" t="s">
-        <v>19</v>
+      <c r="D23" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>41</v>
+      <c r="A24" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="16" t="s">
-        <v>19</v>
+      <c r="D24" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>35</v>
+      <c r="A25" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="16" t="s">
-        <v>19</v>
+      <c r="D25" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>42</v>
+      <c r="A26" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>43</v>
+      <c r="A27" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="19" t="s">
-        <v>13</v>
+      <c r="D27" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
+        <v>39</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
     </row>
     <row r="28" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>112</v>
+      <c r="A28" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="25" t="s">
-        <v>47</v>
+      <c r="D28" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
+        <v>39</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
     </row>
     <row r="29" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>45</v>
+      <c r="A29" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
+        <v>39</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
     </row>
     <row r="30" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>45</v>
+      <c r="A30" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="13" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
+        <v>39</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
     </row>
     <row r="31" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>45</v>
+      <c r="A31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="13" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
+        <v>39</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
     </row>
     <row r="32" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>50</v>
+      <c r="A32" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="C32" s="10"/>
-      <c r="D32" s="15" t="s">
-        <v>47</v>
+      <c r="D32" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
+        <v>39</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>52</v>
+      <c r="A33" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="C33" s="10"/>
-      <c r="D33" s="15" t="s">
-        <v>19</v>
+      <c r="D33" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>53</v>
+      <c r="A34" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="15" t="s">
-        <v>88</v>
+      <c r="D34" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>53</v>
+      <c r="A35" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C35" s="10"/>
-      <c r="D35" s="15" t="s">
-        <v>88</v>
+      <c r="D35" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>53</v>
+      <c r="A36" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C36" s="10"/>
-      <c r="D36" s="15" t="s">
-        <v>88</v>
+      <c r="D36" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>53</v>
+      <c r="A37" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="15" t="s">
-        <v>88</v>
+      <c r="D37" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>53</v>
+      <c r="A38" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C38" s="10"/>
-      <c r="D38" s="15" t="s">
-        <v>88</v>
+      <c r="D38" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>53</v>
+      <c r="A39" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C39" s="10"/>
-      <c r="D39" s="15" t="s">
-        <v>88</v>
+      <c r="D39" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>53</v>
+      <c r="A40" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C40" s="10"/>
-      <c r="D40" s="15" t="s">
-        <v>88</v>
+      <c r="D40" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>53</v>
+      <c r="A41" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C41" s="10"/>
-      <c r="D41" s="15" t="s">
-        <v>88</v>
+      <c r="D41" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>53</v>
+      <c r="A42" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="21" t="s">
-        <v>88</v>
+      <c r="D42" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>53</v>
+      <c r="A43" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C43" s="10"/>
-      <c r="D43" s="21" t="s">
-        <v>88</v>
+      <c r="D43" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>53</v>
+      <c r="A44" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C44" s="10"/>
-      <c r="D44" s="21" t="s">
-        <v>88</v>
+      <c r="D44" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>53</v>
+      <c r="A45" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C45" s="10"/>
-      <c r="D45" s="21" t="s">
-        <v>88</v>
+      <c r="D45" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>53</v>
+      <c r="A46" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="21" t="s">
-        <v>88</v>
+      <c r="D46" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>53</v>
+      <c r="A47" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C47" s="10"/>
-      <c r="D47" s="21" t="s">
-        <v>88</v>
+      <c r="D47" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>53</v>
+      <c r="A48" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="21" t="s">
-        <v>88</v>
+      <c r="D48" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>53</v>
+      <c r="A49" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="21" t="s">
-        <v>88</v>
+      <c r="D49" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>53</v>
+      <c r="A50" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C50" s="10"/>
-      <c r="D50" s="21" t="s">
-        <v>88</v>
+      <c r="D50" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>53</v>
+      <c r="A51" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C51" s="10"/>
-      <c r="D51" s="21" t="s">
-        <v>88</v>
+      <c r="D51" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>53</v>
+      <c r="A52" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C52" s="10"/>
-      <c r="D52" s="21" t="s">
-        <v>88</v>
+      <c r="D52" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>107</v>
+      <c r="A53" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>108</v>
+      <c r="A54" s="25" t="s">
+        <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>109</v>
+      <c r="A55" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>55</v>
+      <c r="A56" s="25" t="s">
+        <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>56</v>
+      <c r="A57" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="C57" s="10"/>
       <c r="D57" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
       <c r="B58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="C58" s="10"/>
       <c r="D58" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="E58" s="10"/>
       <c r="F58" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>61</v>
+      <c r="A59" s="25" t="s">
+        <v>119</v>
       </c>
       <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="6"/>
+      <c r="E59" s="10"/>
       <c r="F59" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>114</v>
+      <c r="A60" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="C60" s="10"/>
       <c r="D60" t="s">
-        <v>47</v>
-      </c>
-      <c r="E60" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="E60" s="10"/>
       <c r="F60" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>115</v>
+      <c r="A61" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>116</v>
+      <c r="A62" s="25" t="s">
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>117</v>
+      <c r="A63" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>69</v>
+      <c r="A64" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>71</v>
+      <c r="A65" s="25" t="s">
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>73</v>
+      <c r="A66" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
       <c r="C67" s="6"/>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
       <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
+      <c r="F67" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" t="s">
+        <v>40</v>
+      </c>
       <c r="C68" s="6"/>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
       <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
+      <c r="F68" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" t="s">
+        <v>41</v>
+      </c>
       <c r="C69" s="6"/>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
       <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
+      <c r="F69" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
       <c r="C70" s="6"/>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
       <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
+      <c r="F70" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C71" s="6"/>
@@ -6678,99 +6856,134 @@
       <c r="F1003" s="6"/>
     </row>
     <row r="1004" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1004" s="22"/>
-      <c r="F1004" s="22"/>
+      <c r="C1004" s="6"/>
+      <c r="E1004" s="6"/>
+      <c r="F1004" s="6"/>
     </row>
     <row r="1005" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1005" s="22"/>
-      <c r="F1005" s="22"/>
+      <c r="C1005" s="6"/>
+      <c r="E1005" s="6"/>
+      <c r="F1005" s="6"/>
     </row>
     <row r="1006" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1006" s="22"/>
-      <c r="F1006" s="22"/>
+      <c r="C1006" s="6"/>
+      <c r="E1006" s="6"/>
+      <c r="F1006" s="6"/>
     </row>
     <row r="1007" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1007" s="22"/>
-      <c r="F1007" s="22"/>
+      <c r="C1007" s="6"/>
+      <c r="E1007" s="6"/>
+      <c r="F1007" s="6"/>
     </row>
     <row r="1008" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1008" s="22"/>
-      <c r="F1008" s="22"/>
+      <c r="E1008" s="21"/>
+      <c r="F1008" s="21"/>
     </row>
     <row r="1009" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1009" s="22"/>
-      <c r="F1009" s="22"/>
+      <c r="E1009" s="21"/>
+      <c r="F1009" s="21"/>
     </row>
     <row r="1010" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1010" s="22"/>
-      <c r="F1010" s="22"/>
+      <c r="E1010" s="21"/>
+      <c r="F1010" s="21"/>
     </row>
     <row r="1011" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1011" s="22"/>
-      <c r="F1011" s="22"/>
+      <c r="E1011" s="21"/>
+      <c r="F1011" s="21"/>
     </row>
     <row r="1012" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1012" s="22"/>
-      <c r="F1012" s="22"/>
+      <c r="E1012" s="21"/>
+      <c r="F1012" s="21"/>
     </row>
     <row r="1013" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1013" s="22"/>
-      <c r="F1013" s="22"/>
+      <c r="E1013" s="21"/>
+      <c r="F1013" s="21"/>
     </row>
     <row r="1014" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1014" s="22"/>
-      <c r="F1014" s="22"/>
+      <c r="E1014" s="21"/>
+      <c r="F1014" s="21"/>
     </row>
     <row r="1015" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1015" s="22"/>
-      <c r="F1015" s="22"/>
+      <c r="E1015" s="21"/>
+      <c r="F1015" s="21"/>
     </row>
     <row r="1016" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1016" s="22"/>
-      <c r="F1016" s="22"/>
+      <c r="E1016" s="21"/>
+      <c r="F1016" s="21"/>
     </row>
     <row r="1017" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1017" s="22"/>
-      <c r="F1017" s="22"/>
+      <c r="E1017" s="21"/>
+      <c r="F1017" s="21"/>
     </row>
     <row r="1018" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1018" s="22"/>
-      <c r="F1018" s="22"/>
+      <c r="E1018" s="21"/>
+      <c r="F1018" s="21"/>
     </row>
     <row r="1019" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1019" s="22"/>
-      <c r="F1019" s="22"/>
+      <c r="E1019" s="21"/>
+      <c r="F1019" s="21"/>
     </row>
     <row r="1020" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1020" s="22"/>
-      <c r="F1020" s="22"/>
+      <c r="E1020" s="21"/>
+      <c r="F1020" s="21"/>
+    </row>
+    <row r="1021" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1021" s="21"/>
+      <c r="F1021" s="21"/>
+    </row>
+    <row r="1022" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1022" s="21"/>
+      <c r="F1022" s="21"/>
+    </row>
+    <row r="1023" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1023" s="21"/>
+      <c r="F1023" s="21"/>
+    </row>
+    <row r="1024" spans="5:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1024" s="21"/>
+      <c r="F1024" s="21"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F1020">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F1024">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Developed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F1020">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="E2:F56 E61:F1024 F57:F60">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E1020">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="E2:E56 E61:E1024">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Tested"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E1020">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+  <conditionalFormatting sqref="E2:E56 E61:E1024">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"Issue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E60">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E60">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E60">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Issue"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1020">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1024">
       <formula1>"Developed,Pending"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E1020">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E1024">
       <formula1>"Tested,Pending,Issue"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/TestCasesPlan.xlsx
+++ b/tests/TestCasesPlan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="133">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Amna</t>
   </si>
   <si>
-    <t>Test SKU management in Expoloader ImportExel</t>
-  </si>
-  <si>
     <t>Test SKU management in Expoloader edit</t>
   </si>
   <si>
@@ -418,6 +415,9 @@
   </si>
   <si>
     <t>navExpoloader</t>
+  </si>
+  <si>
+    <t>Test SKU management in Expoloader exportExel</t>
   </si>
 </sst>
 </file>
@@ -586,23 +586,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -624,46 +608,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF9900"/>
           <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC0000"/>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
         </patternFill>
       </fill>
     </dxf>
@@ -915,8 +859,8 @@
   </sheetPr>
   <dimension ref="A1:AA1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -950,25 +894,25 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>7</v>
@@ -979,15 +923,15 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="13" t="s">
@@ -995,15 +939,15 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="14" t="s">
@@ -1011,15 +955,15 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="14" t="s">
@@ -1027,15 +971,15 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="14" t="s">
@@ -1043,313 +987,323 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F20" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F22" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F23" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F24" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="13" t="s">
@@ -1357,15 +1311,15 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="18" t="s">
@@ -1373,7 +1327,7 @@
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
@@ -1399,18 +1353,18 @@
     </row>
     <row r="28" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
@@ -1436,18 +1390,18 @@
     </row>
     <row r="29" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
@@ -1473,18 +1427,18 @@
     </row>
     <row r="30" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
@@ -1510,18 +1464,18 @@
     </row>
     <row r="31" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
@@ -1547,18 +1501,18 @@
     </row>
     <row r="32" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
@@ -1584,378 +1538,378 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" t="s">
@@ -1963,191 +1917,191 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" t="s">
@@ -2155,39 +2109,39 @@
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -6945,37 +6899,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F1024">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Developed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F56 E61:F1024 F57:F60">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E56 E61:E1024">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Tested"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E56 E61:E1024">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"Issue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E60">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E60">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Tested"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E60">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Issue"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/TestCasesPlan.xlsx
+++ b/tests/TestCasesPlan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="136">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -198,9 +198,6 @@
     <t>SKU import excel data</t>
   </si>
   <si>
-    <t>container export excel data</t>
-  </si>
-  <si>
     <t>test project add</t>
   </si>
   <si>
@@ -418,6 +415,18 @@
   </si>
   <si>
     <t>Test SKU management in Expoloader exportExel</t>
+  </si>
+  <si>
+    <t>pallet export excel data</t>
+  </si>
+  <si>
+    <t>forgetPassword</t>
+  </si>
+  <si>
+    <t>test forget password</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -859,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:AA1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -894,7 +903,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -912,7 +921,7 @@
     </row>
     <row r="3" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>7</v>
@@ -928,7 +937,7 @@
     </row>
     <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>54</v>
@@ -944,7 +953,7 @@
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>42</v>
@@ -960,10 +969,10 @@
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="14" t="s">
@@ -976,7 +985,7 @@
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>10</v>
@@ -992,7 +1001,7 @@
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>43</v>
@@ -1010,7 +1019,7 @@
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>44</v>
@@ -1028,7 +1037,7 @@
     </row>
     <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>45</v>
@@ -1046,7 +1055,7 @@
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>58</v>
@@ -1064,7 +1073,7 @@
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -1080,7 +1089,7 @@
     </row>
     <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>14</v>
@@ -1096,7 +1105,7 @@
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>16</v>
@@ -1112,7 +1121,7 @@
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>46</v>
@@ -1128,7 +1137,7 @@
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>47</v>
@@ -1144,7 +1153,7 @@
     </row>
     <row r="17" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>48</v>
@@ -1160,7 +1169,7 @@
     </row>
     <row r="18" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>57</v>
@@ -1169,14 +1178,16 @@
       <c r="D18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F18" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>49</v>
@@ -1194,7 +1205,7 @@
     </row>
     <row r="20" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>18</v>
@@ -1212,7 +1223,7 @@
     </row>
     <row r="21" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>19</v>
@@ -1230,7 +1241,7 @@
     </row>
     <row r="22" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>50</v>
@@ -1248,7 +1259,7 @@
     </row>
     <row r="23" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>51</v>
@@ -1266,7 +1277,7 @@
     </row>
     <row r="24" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>52</v>
@@ -1284,23 +1295,25 @@
     </row>
     <row r="25" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F25" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>20</v>
@@ -1316,7 +1329,7 @@
     </row>
     <row r="27" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>20</v>
@@ -1353,7 +1366,7 @@
     </row>
     <row r="28" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>55</v>
@@ -1390,7 +1403,7 @@
     </row>
     <row r="29" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>21</v>
@@ -1399,7 +1412,9 @@
       <c r="D29" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F29" s="10" t="s">
         <v>38</v>
       </c>
@@ -1501,7 +1516,7 @@
     </row>
     <row r="32" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>25</v>
@@ -1538,7 +1553,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>26</v>
@@ -1547,14 +1562,16 @@
       <c r="D33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F33" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>27</v>
@@ -1570,7 +1587,7 @@
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>27</v>
@@ -1586,7 +1603,7 @@
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>27</v>
@@ -1602,7 +1619,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>27</v>
@@ -1618,7 +1635,7 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>27</v>
@@ -1634,7 +1651,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>27</v>
@@ -1650,7 +1667,7 @@
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>27</v>
@@ -1666,7 +1683,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>27</v>
@@ -1682,7 +1699,7 @@
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>27</v>
@@ -1698,7 +1715,7 @@
     </row>
     <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>27</v>
@@ -1714,7 +1731,7 @@
     </row>
     <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>27</v>
@@ -1730,7 +1747,7 @@
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>27</v>
@@ -1746,7 +1763,7 @@
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>27</v>
@@ -1762,7 +1779,7 @@
     </row>
     <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>27</v>
@@ -1778,7 +1795,7 @@
     </row>
     <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>27</v>
@@ -1794,7 +1811,7 @@
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>27</v>
@@ -1810,7 +1827,7 @@
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>27</v>
@@ -1826,7 +1843,7 @@
     </row>
     <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>27</v>
@@ -1842,7 +1859,7 @@
     </row>
     <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>27</v>
@@ -1858,7 +1875,7 @@
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
         <v>27</v>
@@ -1874,7 +1891,7 @@
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
         <v>27</v>
@@ -1890,7 +1907,7 @@
     </row>
     <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
         <v>27</v>
@@ -1906,7 +1923,7 @@
     </row>
     <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
@@ -1922,14 +1939,14 @@
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10" t="s">
@@ -1938,14 +1955,14 @@
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10" t="s">
@@ -1954,14 +1971,14 @@
     </row>
     <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10" t="s">
@@ -1970,14 +1987,14 @@
     </row>
     <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10" t="s">
@@ -1986,7 +2003,7 @@
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
         <v>29</v>
@@ -1995,14 +2012,16 @@
       <c r="D61" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="6"/>
+      <c r="E61" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="F61" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
         <v>31</v>
@@ -2011,14 +2030,16 @@
       <c r="D62" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="6"/>
+      <c r="E62" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="F62" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
         <v>32</v>
@@ -2027,14 +2048,16 @@
       <c r="D63" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="6"/>
+      <c r="E63" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="F63" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
         <v>33</v>
@@ -2050,7 +2073,7 @@
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
         <v>34</v>
@@ -2066,7 +2089,7 @@
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
         <v>35</v>
@@ -2082,7 +2105,7 @@
     </row>
     <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B67" t="s">
         <v>36</v>
@@ -2098,7 +2121,7 @@
     </row>
     <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
         <v>39</v>
@@ -2114,7 +2137,7 @@
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
         <v>40</v>
@@ -2130,7 +2153,7 @@
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
         <v>41</v>
@@ -2145,9 +2168,22 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
       <c r="C71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C72" s="6"/>

--- a/tests/TestCasesPlan.xlsx
+++ b/tests/TestCasesPlan.xlsx
@@ -869,7 +869,7 @@
   <dimension ref="A1:AA1024"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2013,7 +2013,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>38</v>
@@ -2031,7 +2031,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>38</v>

--- a/tests/TestCasesPlan.xlsx
+++ b/tests/TestCasesPlan.xlsx
@@ -378,12 +378,6 @@
     <t>projectDeleteAllRecords</t>
   </si>
   <si>
-    <t>projectDetailsAddUser</t>
-  </si>
-  <si>
-    <t>projectDetailsEdit</t>
-  </si>
-  <si>
     <t>projectDetailsDelete</t>
   </si>
   <si>
@@ -427,6 +421,12 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>projectDetailAddUser</t>
+  </si>
+  <si>
+    <t>projectDetailEditUser</t>
   </si>
 </sst>
 </file>
@@ -452,6 +452,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,28 +460,33 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,11 +494,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -869,7 +877,7 @@
   <dimension ref="A1:AA1024"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -903,7 +911,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -921,7 +929,7 @@
     </row>
     <row r="3" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>7</v>
@@ -972,7 +980,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="14" t="s">
@@ -1298,7 +1306,7 @@
         <v>85</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="15" t="s">
@@ -2003,7 +2011,7 @@
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="25" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B61" t="s">
         <v>29</v>
@@ -2021,7 +2029,7 @@
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s">
         <v>31</v>
@@ -2039,7 +2047,7 @@
     </row>
     <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
         <v>32</v>
@@ -2049,7 +2057,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>38</v>
@@ -2057,7 +2065,7 @@
     </row>
     <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
         <v>33</v>
@@ -2073,7 +2081,7 @@
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
         <v>34</v>
@@ -2089,7 +2097,7 @@
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
         <v>35</v>
@@ -2105,7 +2113,7 @@
     </row>
     <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
         <v>36</v>
@@ -2121,7 +2129,7 @@
     </row>
     <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B68" t="s">
         <v>39</v>
@@ -2137,7 +2145,7 @@
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B69" t="s">
         <v>40</v>
@@ -2153,7 +2161,7 @@
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
         <v>41</v>
@@ -2169,17 +2177,17 @@
     </row>
     <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>38</v>

--- a/tests/TestCasesPlan.xlsx
+++ b/tests/TestCasesPlan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="135">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -418,9 +418,6 @@
   </si>
   <si>
     <t>test forget password</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>projectDetailAddUser</t>
@@ -876,8 +873,8 @@
   </sheetPr>
   <dimension ref="A1:AA1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2011,7 +2008,7 @@
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
         <v>29</v>
@@ -2029,7 +2026,7 @@
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B62" t="s">
         <v>31</v>
@@ -2187,7 +2184,7 @@
         <v>11</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>38</v>

--- a/tests/TestCasesPlan.xlsx
+++ b/tests/TestCasesPlan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MYDOC\ILTWORKS\iltTests\tests\ExpoloaderNewTest\GitHub\ExpoloaderManagement\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MYDOC\ILTWORKS\iltTests\tests\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="136">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>projectDetailEditUser</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,175 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC0000"/>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -873,8 +1044,8 @@
   </sheetPr>
   <dimension ref="A1:AA1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -935,7 +1106,9 @@
       <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F3" s="10" t="s">
         <v>38</v>
       </c>
@@ -951,7 +1124,9 @@
       <c r="D4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F4" s="10" t="s">
         <v>38</v>
       </c>
@@ -967,7 +1142,9 @@
       <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F5" s="10" t="s">
         <v>38</v>
       </c>
@@ -983,7 +1160,9 @@
       <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F6" s="10" t="s">
         <v>38</v>
       </c>
@@ -999,7 +1178,9 @@
       <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F7" s="10" t="s">
         <v>38</v>
       </c>
@@ -1087,7 +1268,9 @@
       <c r="D12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F12" s="10" t="s">
         <v>38</v>
       </c>
@@ -1103,7 +1286,9 @@
       <c r="D13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F13" s="10" t="s">
         <v>38</v>
       </c>
@@ -1119,7 +1304,9 @@
       <c r="D14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F14" s="10" t="s">
         <v>38</v>
       </c>
@@ -1135,7 +1322,9 @@
       <c r="D15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" s="10" t="s">
         <v>38</v>
       </c>
@@ -1151,7 +1340,9 @@
       <c r="D16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F16" s="10" t="s">
         <v>38</v>
       </c>
@@ -1167,7 +1358,9 @@
       <c r="D17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F17" s="10" t="s">
         <v>38</v>
       </c>
@@ -1327,7 +1520,9 @@
       <c r="D26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F26" s="10" t="s">
         <v>38</v>
       </c>
@@ -1343,7 +1538,9 @@
       <c r="D27" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F27" s="10" t="s">
         <v>38</v>
       </c>
@@ -1380,7 +1577,9 @@
       <c r="D28" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F28" s="10" t="s">
         <v>38</v>
       </c>
@@ -1456,7 +1655,9 @@
       <c r="D30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F30" s="10" t="s">
         <v>38</v>
       </c>
@@ -1493,7 +1694,9 @@
       <c r="D31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="6"/>
+      <c r="E31" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F31" s="10" t="s">
         <v>38</v>
       </c>
@@ -1530,7 +1733,9 @@
       <c r="D32" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="6"/>
+      <c r="E32" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F32" s="10" t="s">
         <v>38</v>
       </c>
@@ -1585,7 +1790,9 @@
       <c r="D34" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="F34" s="10" t="s">
         <v>38</v>
       </c>
@@ -1601,7 +1808,9 @@
       <c r="D35" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F35" s="10" t="s">
         <v>38</v>
       </c>
@@ -1617,7 +1826,9 @@
       <c r="D36" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="6"/>
+      <c r="E36" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F36" s="10" t="s">
         <v>38</v>
       </c>
@@ -1633,7 +1844,9 @@
       <c r="D37" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F37" s="10" t="s">
         <v>38</v>
       </c>
@@ -1649,7 +1862,9 @@
       <c r="D38" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="6"/>
+      <c r="E38" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F38" s="10" t="s">
         <v>38</v>
       </c>
@@ -1665,7 +1880,9 @@
       <c r="D39" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="6"/>
+      <c r="E39" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F39" s="10" t="s">
         <v>38</v>
       </c>
@@ -1681,7 +1898,9 @@
       <c r="D40" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="6"/>
+      <c r="E40" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F40" s="10" t="s">
         <v>38</v>
       </c>
@@ -1697,7 +1916,9 @@
       <c r="D41" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="6"/>
+      <c r="E41" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F41" s="10" t="s">
         <v>38</v>
       </c>
@@ -1713,7 +1934,9 @@
       <c r="D42" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="6"/>
+      <c r="E42" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F42" s="10" t="s">
         <v>38</v>
       </c>
@@ -1729,7 +1952,9 @@
       <c r="D43" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="6"/>
+      <c r="E43" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F43" s="10" t="s">
         <v>38</v>
       </c>
@@ -1745,7 +1970,9 @@
       <c r="D44" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="6"/>
+      <c r="E44" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F44" s="10" t="s">
         <v>38</v>
       </c>
@@ -1761,7 +1988,9 @@
       <c r="D45" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="6"/>
+      <c r="E45" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F45" s="10" t="s">
         <v>38</v>
       </c>
@@ -1777,7 +2006,9 @@
       <c r="D46" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="6"/>
+      <c r="E46" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F46" s="10" t="s">
         <v>38</v>
       </c>
@@ -1793,7 +2024,9 @@
       <c r="D47" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F47" s="10" t="s">
         <v>38</v>
       </c>
@@ -1809,7 +2042,9 @@
       <c r="D48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="6"/>
+      <c r="E48" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F48" s="10" t="s">
         <v>38</v>
       </c>
@@ -1825,7 +2060,9 @@
       <c r="D49" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="6"/>
+      <c r="E49" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F49" s="10" t="s">
         <v>38</v>
       </c>
@@ -1841,7 +2078,9 @@
       <c r="D50" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="6"/>
+      <c r="E50" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F50" s="10" t="s">
         <v>38</v>
       </c>
@@ -1857,7 +2096,9 @@
       <c r="D51" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="6"/>
+      <c r="E51" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F51" s="10" t="s">
         <v>38</v>
       </c>
@@ -1873,7 +2114,9 @@
       <c r="D52" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="6"/>
+      <c r="E52" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F52" s="10" t="s">
         <v>38</v>
       </c>
@@ -1889,7 +2132,9 @@
       <c r="D53" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="6"/>
+      <c r="E53" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F53" s="10" t="s">
         <v>38</v>
       </c>
@@ -1905,7 +2150,9 @@
       <c r="D54" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="6"/>
+      <c r="E54" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F54" s="10" t="s">
         <v>38</v>
       </c>
@@ -1921,7 +2168,9 @@
       <c r="D55" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="6"/>
+      <c r="E55" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="F55" s="10" t="s">
         <v>38</v>
       </c>
@@ -1937,7 +2186,9 @@
       <c r="D56" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="6"/>
+      <c r="E56" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F56" s="10" t="s">
         <v>38</v>
       </c>
@@ -1953,7 +2204,9 @@
       <c r="D57" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="10"/>
+      <c r="E57" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F57" s="10" t="s">
         <v>38</v>
       </c>
@@ -1969,7 +2222,9 @@
       <c r="D58" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="10"/>
+      <c r="E58" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F58" s="10" t="s">
         <v>38</v>
       </c>
@@ -1985,7 +2240,9 @@
       <c r="D59" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="10"/>
+      <c r="E59" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F59" s="10" t="s">
         <v>38</v>
       </c>
@@ -2001,7 +2258,9 @@
       <c r="D60" t="s">
         <v>60</v>
       </c>
-      <c r="E60" s="10"/>
+      <c r="E60" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F60" s="10" t="s">
         <v>38</v>
       </c>
@@ -2071,7 +2330,9 @@
       <c r="D64" t="s">
         <v>23</v>
       </c>
-      <c r="E64" s="6"/>
+      <c r="E64" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F64" s="10" t="s">
         <v>38</v>
       </c>
@@ -2087,7 +2348,9 @@
       <c r="D65" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="6"/>
+      <c r="E65" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F65" s="10" t="s">
         <v>38</v>
       </c>
@@ -2103,7 +2366,9 @@
       <c r="D66" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="6"/>
+      <c r="E66" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F66" s="10" t="s">
         <v>38</v>
       </c>
@@ -2119,7 +2384,9 @@
       <c r="D67" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="6"/>
+      <c r="E67" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F67" s="10" t="s">
         <v>38</v>
       </c>
@@ -2135,7 +2402,9 @@
       <c r="D68" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="6"/>
+      <c r="E68" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F68" s="10" t="s">
         <v>38</v>
       </c>
@@ -2151,7 +2420,9 @@
       <c r="D69" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="6"/>
+      <c r="E69" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="F69" s="10" t="s">
         <v>38</v>
       </c>
@@ -2167,7 +2438,9 @@
       <c r="D70" t="s">
         <v>28</v>
       </c>
-      <c r="E70" s="6"/>
+      <c r="E70" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="F70" s="10" t="s">
         <v>38</v>
       </c>
@@ -6940,37 +7213,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F1024">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>"Developed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F56 E61:F1024 F57:F60">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+  <conditionalFormatting sqref="E2:F1024">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E56 E61:E1024">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+  <conditionalFormatting sqref="E2:E1024">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>"Tested"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E56 E61:E1024">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
-      <formula>"Issue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E60">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E60">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E60">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+  <conditionalFormatting sqref="E2:E1024">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>"Issue"</formula>
     </cfRule>
   </conditionalFormatting>
